--- a/source-data/dataTrento/dataTrento.xlsx
+++ b/source-data/dataTrento/dataTrento.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\servaism\git\Excel-to-CPSVAP-RDF-transformation\source-data\dataTrento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\servaism\git\Trento_conversionToRDF\source-data\dataTrento\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="990" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="990" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Public Service Dataset" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="833">
   <si>
     <t>PSDURI</t>
   </si>
@@ -155,9 +155,6 @@
   </si>
   <si>
     <t>EDUC</t>
-  </si>
-  <si>
-    <t>08.2.1</t>
   </si>
   <si>
     <t>italiano</t>
@@ -621,9 +618,6 @@
     <t>SOCI</t>
   </si>
   <si>
-    <t>08.1.1</t>
-  </si>
-  <si>
     <t>BE_3.1.1</t>
   </si>
   <si>
@@ -661,9 +655,6 @@
   </si>
   <si>
     <t>R93.1</t>
-  </si>
-  <si>
-    <t>08.6.1</t>
   </si>
   <si>
     <t xml:space="preserve">p_TN_849, P_TN_851, P_TN_2016,p_TN_2017, P_TN_2018, P_TN_2019, P_TN_2021, P_TN_2022 </t>
@@ -877,9 +868,6 @@
     <t>O84.12.30</t>
   </si>
   <si>
-    <t>05.6.1</t>
-  </si>
-  <si>
     <t>p_TN_2051, p_TN_1387, p_TN_1663</t>
   </si>
   <si>
@@ -922,9 +910,6 @@
   </si>
   <si>
     <t>J61.10</t>
-  </si>
-  <si>
-    <t>04.6.1</t>
   </si>
   <si>
     <t>SCIA per impianti con caratteristiche definite, comunicazione attivazione/disattivazione</t>
@@ -1292,9 +1277,6 @@
     <t>Q88.99</t>
   </si>
   <si>
-    <t>10.4.1</t>
-  </si>
-  <si>
     <t>LE_1,
 LE _3.2</t>
   </si>
@@ -1611,9 +1593,6 @@
     <t>EDUC, GOVE, SOCI</t>
   </si>
   <si>
-    <t>09.1, 09.2, 09.3,01.3.1</t>
-  </si>
-  <si>
     <t>LE_4</t>
   </si>
   <si>
@@ -1719,9 +1698,6 @@
     <t>ECON, GOVE</t>
   </si>
   <si>
-    <t>01.3.4, 04.9.1</t>
-  </si>
-  <si>
     <t>BE_3.5, BE_1.5.1, BE_3.7.1</t>
   </si>
   <si>
@@ -1753,9 +1729,6 @@
     <t>ME-PAT, beni, servizi, pubblica amministrazione</t>
   </si>
   <si>
-    <t>01.3.4</t>
-  </si>
-  <si>
     <t>p_TN_NP15, p_TN_NP17, p_TN_NP8</t>
   </si>
   <si>
@@ -1852,9 +1825,6 @@
   </si>
   <si>
     <t>EDUC, SOCI</t>
-  </si>
-  <si>
-    <t>08.6.1, 10.4.1</t>
   </si>
   <si>
     <t>BE_1.5.1, BE_3.7.1, LE_1</t>
@@ -1969,9 +1939,6 @@
     <t>dati, catasto, proprietà immobiliare, rendita catastale, casa, unità immobiliare</t>
   </si>
   <si>
-    <t>06.2.1</t>
-  </si>
-  <si>
     <t>LE_6.1, LE_6.2</t>
   </si>
   <si>
@@ -2017,9 +1984,6 @@
   </si>
   <si>
     <t>dati, catasto, impianto termico, caldaia, manutenzione, catasto degli impianti termici, abitazione, SIRE</t>
-  </si>
-  <si>
-    <t>4.03.06</t>
   </si>
   <si>
     <t>servizio accatastamento e aggiornamento dati relativi agli impianti termici civili, p_TN_NP2, p_TN_NP14</t>
@@ -2184,9 +2148,6 @@
     <t>BE_1.1</t>
   </si>
   <si>
-    <t>Registering a company</t>
-  </si>
-  <si>
     <t>BE_1.2</t>
   </si>
   <si>
@@ -2857,9 +2818,6 @@
     <t>Member</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>Provincia Autonoma di Trento - Agenzia provinciale per le risorse idriche e l'energia (APRIE)</t>
   </si>
   <si>
@@ -2869,19 +2827,9 @@
     <t>Provincia Autonoma di Trento - Servizio infanzia e istruzione del primo grado</t>
   </si>
   <si>
-    <t>Provincia Autonoma di Trento - Servizio infanzia e istruzione del primo grado
-Provincia Autonoma di Trento - Servizio istruzione e formazione del secondo grado, università e ricerca</t>
-  </si>
-  <si>
     <t>Provincia Autonoma di Trento - Agenzia provinciale per la famiglia, la natalità e le politiche giovanili</t>
   </si>
   <si>
-    <t>Provincia Autonoma di Trento  - Dipartimento infrastrutture e mobilità</t>
-  </si>
-  <si>
-    <t>Provincia Autonoma di Trento  - Agenzia provinciale per la famiglia, la natalità e le politiche giovanili</t>
-  </si>
-  <si>
     <t>Provincia Autonoma di Trento - Dipartimento istruzione e cultura</t>
   </si>
   <si>
@@ -2897,9 +2845,6 @@
     <t>Provincia Autonoma di Trento - Servizio industria, artigianato, commercio e cooperazione</t>
   </si>
   <si>
-    <t>Provincia Autonoma di Trento - Agenzia provinciale per i pagamenti (APPAG)</t>
-  </si>
-  <si>
     <t>Provincia Autonoma di Trento - Agenzia provinciale per la previdenza e l'assistenza integrativa (APAPI)</t>
   </si>
   <si>
@@ -2910,13 +2855,130 @@
   </si>
   <si>
     <t>Provincia Autonoma di Trento - Dipartimento infrastrutture e trasporti</t>
+  </si>
+  <si>
+    <t>Provincia Autonoma di Trento - Agenzia provinciale per I pagamenti (APPAG)</t>
+  </si>
+  <si>
+    <t>ARJF3E</t>
+  </si>
+  <si>
+    <t>GEDA5F</t>
+  </si>
+  <si>
+    <t>GOVE</t>
+  </si>
+  <si>
+    <t>HEAL</t>
+  </si>
+  <si>
+    <t>01.3</t>
+  </si>
+  <si>
+    <t>04.6</t>
+  </si>
+  <si>
+    <t>05.6</t>
+  </si>
+  <si>
+    <t>06.2</t>
+  </si>
+  <si>
+    <t>08.1</t>
+  </si>
+  <si>
+    <t>08.2</t>
+  </si>
+  <si>
+    <t>08.6</t>
+  </si>
+  <si>
+    <t>10.4</t>
+  </si>
+  <si>
+    <t>09.1, 09.2, 09.3, 01.3.1</t>
+  </si>
+  <si>
+    <t>01.3, 04.9</t>
+  </si>
+  <si>
+    <t>08.6, 10.4</t>
+  </si>
+  <si>
+    <t>1.1 Registering a company</t>
+  </si>
+  <si>
+    <t>98746E0AFCDCCEEF188FDD63366C3E13</t>
+  </si>
+  <si>
+    <t>5E55852C9D1C0C4F1AABC3049353F643</t>
+  </si>
+  <si>
+    <t>78FBCDA10A84563984BFA8B17858E398</t>
+  </si>
+  <si>
+    <t>62F05CA8FCEA79BED8173DBE3D8325D8</t>
+  </si>
+  <si>
+    <t>F5E61C4BF197F9E3D728B2FEE99CA0C8</t>
+  </si>
+  <si>
+    <t>E5E041050B3F3F1CAC145B4A92432EE3</t>
+  </si>
+  <si>
+    <t>C73C1DD441A5A55ED98D778512A7A34A</t>
+  </si>
+  <si>
+    <t>060FFAFE2E72EDE99F103BAE852830B7</t>
+  </si>
+  <si>
+    <t>5631C038438617A6B06451DF5039E0C4</t>
+  </si>
+  <si>
+    <t>601BE9DB30A905358E2473E628EE9F14</t>
+  </si>
+  <si>
+    <t>9B90905FB705CC0A9E9BA6321133EC5D</t>
+  </si>
+  <si>
+    <t>858AFE20EBA2C68B6B057DBABE555B5C</t>
+  </si>
+  <si>
+    <t>9E469D4C876BE3956DDDF92B24007EAE</t>
+  </si>
+  <si>
+    <t>0093E320E1F0693F4590A435D72B5143</t>
+  </si>
+  <si>
+    <t>715E9231D818B6754EE75D2B2CCA10FA</t>
+  </si>
+  <si>
+    <t>184C51EECD4699D98C47D01128BE0ED1</t>
+  </si>
+  <si>
+    <t>43AA6B17A290B6D2D1A0F9128EC113A2</t>
+  </si>
+  <si>
+    <t>75C7EB68A31EBA98B089E7C3224321E7</t>
+  </si>
+  <si>
+    <t>871F7C6A62B156821B3DC4BC5153EAB6</t>
+  </si>
+  <si>
+    <t>73632EA8A06B032E9333B4D8E1FA69E2</t>
+  </si>
+  <si>
+    <t>C8045F6A7E546D93069FAD6581DD8A90</t>
+  </si>
+  <si>
+    <t>R90 - Creative, arts and entertainment activities</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2979,6 +3041,14 @@
       <family val="1"/>
       <charset val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -3007,8 +3077,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
   </fills>
@@ -3021,10 +3091,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3079,9 +3150,6 @@
     <xf numFmtId="21" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -3115,11 +3183,51 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -3463,7 +3571,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Sheet1">
     <tabColor rgb="FF5B9BD5"/>
   </sheetPr>
   <dimension ref="A1:Z1000"/>
@@ -4524,7 +4632,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Sheet10">
     <tabColor rgb="FF5B9BD5"/>
   </sheetPr>
   <dimension ref="A1:F1000"/>
@@ -4545,22 +4653,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>668</v>
+        <v>655</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>669</v>
+        <v>656</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>670</v>
+        <v>657</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>672</v>
+        <v>659</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>673</v>
+        <v>660</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5551,7 +5659,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Sheet11">
     <tabColor rgb="FF5B9BD5"/>
   </sheetPr>
   <dimension ref="A1:E1000"/>
@@ -5572,7 +5680,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>674</v>
+        <v>661</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
@@ -5584,7 +5692,7 @@
         <v>11</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>675</v>
+        <v>662</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6575,29 +6683,33 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Sheet12">
     <tabColor rgb="FF5B9BD5"/>
   </sheetPr>
-  <dimension ref="A1:B1000"/>
+  <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375"/>
-    <col min="2" max="2" width="12.28515625"/>
-    <col min="3" max="27" width="14.85546875"/>
-    <col min="28" max="1025" width="14.140625"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625"/>
+    <col min="4" max="28" width="14.85546875"/>
+    <col min="29" max="1026" width="14.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
-        <v>676</v>
+    <row r="1" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>663</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -7589,7 +7701,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Sheet13">
     <tabColor rgb="FF5B9BD5"/>
   </sheetPr>
   <dimension ref="A1:D1000"/>
@@ -7609,16 +7721,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>677</v>
+        <v>664</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8609,19 +8721,18 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Sheet14">
     <tabColor rgb="FFED7D31"/>
   </sheetPr>
-  <dimension ref="A1:Z22"/>
+  <dimension ref="A1:Z30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.42578125"/>
     <col min="2" max="2" width="83.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="21.85546875"/>
     <col min="6" max="6" width="26"/>
@@ -8631,38 +8742,38 @@
   <sheetData>
     <row r="1" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>680</v>
+        <v>667</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>681</v>
+        <v>668</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>32</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" s="4"/>
-      <c r="F2" s="5" t="s">
-        <v>682</v>
+      <c r="F2" s="12" t="s">
+        <v>669</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -8686,19 +8797,19 @@
       <c r="Z2" s="7"/>
     </row>
     <row r="3" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>64</v>
+      <c r="A3" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="6" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -8721,20 +8832,20 @@
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
     </row>
-    <row r="4" spans="1:26" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>81</v>
+    <row r="4" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="6" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -8758,19 +8869,19 @@
       <c r="Z4" s="7"/>
     </row>
     <row r="5" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>128</v>
+      <c r="A5" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>127</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="6" t="s">
-        <v>685</v>
+        <v>672</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -8793,20 +8904,20 @@
       <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
     </row>
-    <row r="6" spans="1:26" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>199</v>
+    <row r="6" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>196</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="6" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -8830,19 +8941,19 @@
       <c r="Z6" s="7"/>
     </row>
     <row r="7" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>214</v>
+      <c r="A7" s="6" t="s">
+        <v>210</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="6" t="s">
-        <v>687</v>
+        <v>674</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -8866,19 +8977,19 @@
       <c r="Z7" s="7"/>
     </row>
     <row r="8" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>233</v>
+      <c r="A8" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>228</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="6" t="s">
-        <v>688</v>
+        <v>675</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -8901,36 +9012,36 @@
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
     </row>
-    <row r="9" spans="1:26" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
-        <v>304</v>
+    <row r="9" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>299</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>795</v>
+        <v>781</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="11" t="s">
-        <v>689</v>
+        <v>676</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>291</v>
+      <c r="A10" s="6" t="s">
+        <v>286</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="10" t="s">
-        <v>690</v>
+        <v>677</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -8954,198 +9065,223 @@
       <c r="Z10" s="7"/>
     </row>
     <row r="11" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
-        <v>266</v>
+      <c r="A11" s="6" t="s">
+        <v>261</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="11" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
-        <v>314</v>
+      <c r="A12" s="6" t="s">
+        <v>308</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>796</v>
+        <v>782</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="11" t="s">
-        <v>692</v>
+        <v>679</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>327</v>
+    <row r="13" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>321</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>797</v>
+        <v>783</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="11" t="s">
-        <v>693</v>
+        <v>680</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="57.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
-        <v>694</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>810</v>
+    <row r="14" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>681</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>792</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="11" t="s">
-        <v>693</v>
+        <v>680</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="43.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
-        <v>348</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>799</v>
+    <row r="15" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>784</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E15" s="2"/>
-      <c r="F15" s="31" t="s">
-        <v>695</v>
+      <c r="F15" s="30" t="s">
+        <v>682</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="43.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
-        <v>364</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>811</v>
+    <row r="16" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>793</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="11" t="s">
-        <v>696</v>
+        <v>683</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
-        <v>385</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>802</v>
+      <c r="A17" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>785</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="11" t="s">
-        <v>693</v>
+        <v>680</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
-        <v>402</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>803</v>
+      <c r="A18" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>786</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="11" t="s">
-        <v>693</v>
+        <v>680</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="43.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="31" t="s">
-        <v>433</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>804</v>
+    <row r="19" spans="1:6" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>787</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="10" t="s">
-        <v>697</v>
+        <v>684</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
-        <v>483</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>805</v>
+      <c r="A20" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>788</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E20" s="2"/>
-      <c r="F20" s="31" t="s">
-        <v>695</v>
+      <c r="F20" s="30" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
-        <v>501</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>806</v>
+      <c r="A21" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>789</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E21" s="2"/>
-      <c r="F21" s="31" t="s">
-        <v>698</v>
+      <c r="F21" s="30" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="31" t="s">
-        <v>557</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>809</v>
+      <c r="A22" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>791</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E22" s="2"/>
-      <c r="F22" s="31" t="s">
-        <v>699</v>
+      <c r="F22" s="30" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>795</v>
+      </c>
+      <c r="B23" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>796</v>
+      </c>
+      <c r="B24" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>792</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
@@ -9153,14 +9289,14 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Sheet15">
     <tabColor rgb="FF5B9BD5"/>
   </sheetPr>
-  <dimension ref="A1:Z22"/>
+  <dimension ref="A1:Y22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9170,200 +9306,200 @@
     <col min="3" max="3" width="22.5703125"/>
     <col min="4" max="4" width="14.7109375"/>
     <col min="5" max="5" width="31.85546875"/>
-    <col min="6" max="26" width="14.85546875"/>
-    <col min="27" max="1025" width="14.140625"/>
+    <col min="6" max="25" width="14.85546875"/>
+    <col min="26" max="1024" width="14.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>693</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>694</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="38" t="s">
+        <v>695</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>696</v>
+      </c>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:25" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>697</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>698</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="30" t="s">
+        <v>699</v>
+      </c>
+      <c r="F3" s="32" t="s">
         <v>700</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>701</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C4" s="33" t="s">
         <v>702</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="30" t="s">
         <v>703</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F4" s="32" t="s">
         <v>704</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>705</v>
       </c>
+      <c r="C5" s="32" t="s">
+        <v>706</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="30" t="s">
+        <v>707</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>708</v>
+      </c>
+      <c r="G5" s="4"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>706</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>707</v>
-      </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="31" t="s">
-        <v>708</v>
-      </c>
-      <c r="F2" s="33" t="s">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>709</v>
       </c>
-      <c r="H2" s="6"/>
+      <c r="C6" s="32" t="s">
+        <v>710</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="30" t="s">
+        <v>711</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>712</v>
+      </c>
+      <c r="G6" s="4"/>
     </row>
-    <row r="3" spans="1:26" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>710</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>711</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="31" t="s">
-        <v>712</v>
-      </c>
-      <c r="F3" s="33" t="s">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>713</v>
       </c>
-      <c r="H3" s="4"/>
+      <c r="C7" s="32" t="s">
+        <v>714</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="30" t="s">
+        <v>715</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>716</v>
+      </c>
+      <c r="G7" s="7"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>714</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>715</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="31" t="s">
-        <v>716</v>
-      </c>
-      <c r="F4" s="33" t="s">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>717</v>
       </c>
-      <c r="H4" s="4"/>
+      <c r="C8" s="32" t="s">
+        <v>718</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="30" t="s">
+        <v>719</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>720</v>
+      </c>
+      <c r="G8" s="7"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>718</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>719</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="31" t="s">
-        <v>720</v>
-      </c>
-      <c r="F5" s="33" t="s">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>721</v>
       </c>
-      <c r="H5" s="4"/>
+      <c r="C9" s="32" t="s">
+        <v>722</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="30" t="s">
+        <v>723</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>724</v>
+      </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>722</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="31" t="s">
-        <v>724</v>
-      </c>
-      <c r="F6" s="33" t="s">
+    <row r="10" spans="1:25" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>725</v>
       </c>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="B7" s="11" t="s">
+      <c r="C10" s="14" t="s">
         <v>726</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>727</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="31" t="s">
-        <v>728</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>729</v>
-      </c>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>730</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>731</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="31" t="s">
-        <v>732</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>733</v>
-      </c>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
-        <v>304</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>734</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>735</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="31" t="s">
-        <v>736</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>738</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>739</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="7" t="s">
-        <v>740</v>
+        <v>727</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>741</v>
-      </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="4"/>
+        <v>728</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
@@ -9381,218 +9517,222 @@
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B11" s="11" t="s">
+        <v>729</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>730</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="30" t="s">
+        <v>731</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>733</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>734</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="30" t="s">
+        <v>735</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>737</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>738</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="30" t="s">
+        <v>739</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>740</v>
+      </c>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>681</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>741</v>
+      </c>
+      <c r="C14" s="32" t="s">
         <v>742</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="D14" s="2"/>
+      <c r="E14" s="30" t="s">
         <v>743</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="31" t="s">
+      <c r="F14" s="32" t="s">
         <v>744</v>
       </c>
-      <c r="F11" s="33" t="s">
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>745</v>
       </c>
+      <c r="C15" s="30" t="s">
+        <v>746</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="30" t="s">
+        <v>747</v>
+      </c>
     </row>
-    <row r="12" spans="1:26" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
-        <v>314</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>746</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>747</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="31" t="s">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="B16" s="30" t="s">
         <v>748</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="C16" s="32" t="s">
         <v>749</v>
       </c>
+      <c r="E16" s="30" t="s">
+        <v>750</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>751</v>
+      </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>750</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>751</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="31" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="30" t="s">
+        <v>395</v>
+      </c>
+      <c r="B17" s="30" t="s">
         <v>752</v>
       </c>
-      <c r="F13" s="33" t="s">
+      <c r="C17" s="32" t="s">
         <v>753</v>
       </c>
-      <c r="H13" s="11"/>
+      <c r="E17" s="30" t="s">
+        <v>754</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>755</v>
+      </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>694</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>754</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>755</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="31" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="30" t="s">
+        <v>425</v>
+      </c>
+      <c r="B18" s="30" t="s">
         <v>756</v>
       </c>
-      <c r="F14" s="33" t="s">
+      <c r="C18" s="32" t="s">
         <v>757</v>
       </c>
+      <c r="E18" s="30" t="s">
+        <v>758</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>759</v>
+      </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>758</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>759</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="31" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="30" t="s">
+        <v>473</v>
+      </c>
+      <c r="B19" s="30" t="s">
         <v>760</v>
       </c>
+      <c r="C19" s="32" t="s">
+        <v>761</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>762</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>763</v>
+      </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>385</v>
-      </c>
-      <c r="B16" s="31" t="s">
-        <v>761</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>762</v>
-      </c>
-      <c r="E16" s="31" t="s">
-        <v>763</v>
-      </c>
-      <c r="F16" s="33" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="30" t="s">
+        <v>491</v>
+      </c>
+      <c r="B20" s="30" t="s">
         <v>764</v>
       </c>
+      <c r="C20" s="32" t="s">
+        <v>765</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>766</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>767</v>
+      </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
-        <v>402</v>
-      </c>
-      <c r="B17" s="31" t="s">
-        <v>765</v>
-      </c>
-      <c r="C17" s="33" t="s">
-        <v>766</v>
-      </c>
-      <c r="E17" s="31" t="s">
-        <v>767</v>
-      </c>
-      <c r="F17" s="33" t="s">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="30" t="s">
+        <v>545</v>
+      </c>
+      <c r="B21" s="30" t="s">
         <v>768</v>
       </c>
+      <c r="C21" s="32" t="s">
+        <v>769</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>770</v>
+      </c>
+      <c r="F21" s="32" t="s">
+        <v>771</v>
+      </c>
+      <c r="G21" s="30"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
-        <v>433</v>
-      </c>
-      <c r="B18" s="31" t="s">
-        <v>769</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>770</v>
-      </c>
-      <c r="E18" s="31" t="s">
-        <v>771</v>
-      </c>
-      <c r="F18" s="33" t="s">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="30" t="s">
+        <v>342</v>
+      </c>
+      <c r="B22" s="30" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="31" t="s">
-        <v>483</v>
-      </c>
-      <c r="B19" s="31" t="s">
+      <c r="C22" s="30" t="s">
         <v>773</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="E22" s="30" t="s">
         <v>774</v>
       </c>
-      <c r="E19" s="31" t="s">
+      <c r="F22" s="32" t="s">
         <v>775</v>
       </c>
-      <c r="F19" s="33" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
-        <v>501</v>
-      </c>
-      <c r="B20" s="31" t="s">
-        <v>777</v>
-      </c>
-      <c r="C20" s="33" t="s">
-        <v>778</v>
-      </c>
-      <c r="E20" s="31" t="s">
-        <v>779</v>
-      </c>
-      <c r="F20" s="33" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
-        <v>557</v>
-      </c>
-      <c r="B21" s="31" t="s">
-        <v>781</v>
-      </c>
-      <c r="C21" s="33" t="s">
-        <v>782</v>
-      </c>
-      <c r="E21" s="31" t="s">
-        <v>783</v>
-      </c>
-      <c r="F21" s="33" t="s">
-        <v>784</v>
-      </c>
-      <c r="H21" s="31"/>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="31" t="s">
-        <v>348</v>
-      </c>
-      <c r="B22" s="31" t="s">
-        <v>785</v>
-      </c>
-      <c r="C22" s="31" t="s">
-        <v>786</v>
-      </c>
-      <c r="E22" s="31" t="s">
-        <v>787</v>
-      </c>
-      <c r="F22" s="33" t="s">
-        <v>788</v>
-      </c>
-      <c r="H22" s="31"/>
+      <c r="G22" s="30"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
@@ -9600,23 +9740,84 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr codeName="Sheet16"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="26" width="8.5703125"/>
     <col min="27" max="1025" width="14.140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>789</v>
+      <c r="A1" s="34" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:A12">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
@@ -9624,14 +9825,14 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Sheet17">
     <tabColor rgb="FF5B9BD5"/>
   </sheetPr>
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9646,10 +9847,10 @@
   <sheetData>
     <row r="1" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>790</v>
+        <v>777</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>791</v>
+        <v>778</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -10649,6 +10850,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -10661,11 +10863,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
-        <v>792</v>
+      <c r="A1" s="31" t="s">
+        <v>779</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>793</v>
+        <v>780</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11675,13 +11877,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Sheet2">
     <tabColor rgb="FFED7D31"/>
   </sheetPr>
-  <dimension ref="A1:Z1048576"/>
+  <dimension ref="A1:Z1048575"/>
   <sheetViews>
-    <sheetView topLeftCell="D22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11689,7 +11891,7 @@
     <col min="1" max="1" width="19.140625"/>
     <col min="2" max="2" width="47.5703125"/>
     <col min="3" max="3" width="101.5703125"/>
-    <col min="4" max="4" width="112.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.140625"/>
     <col min="6" max="6" width="22.28515625"/>
     <col min="7" max="7" width="12.7109375"/>
@@ -11743,28 +11945,28 @@
       <c r="J1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="36" t="s">
         <v>20</v>
       </c>
       <c r="S1" s="3" t="s">
@@ -11776,19 +11978,19 @@
       <c r="U1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="36" t="s">
         <v>24</v>
       </c>
       <c r="W1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="36" t="s">
         <v>26</v>
       </c>
       <c r="Y1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="36" t="s">
         <v>28</v>
       </c>
     </row>
@@ -11803,292 +12005,292 @@
         <v>31</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>33</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>34</v>
+        <v>832</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>35</v>
       </c>
       <c r="H2" s="8" t="s">
+        <v>804</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N2" s="6"/>
       <c r="O2" s="7"/>
       <c r="P2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="R2" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="S2" s="5"/>
       <c r="T2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="U2" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="V2" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="W2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="X2" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="X2" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="Y2" s="4"/>
       <c r="Z2" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>52</v>
-      </c>
       <c r="D3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="I3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="N3" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="O3" s="4"/>
       <c r="P3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q3" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="R3" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="S3" s="4"/>
       <c r="T3" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U3" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="V3" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="V3" s="5" t="s">
+      <c r="W3" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="W3" s="6" t="s">
+      <c r="X3" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="X3" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="Y3" s="4"/>
       <c r="Z3" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>71</v>
-      </c>
       <c r="D4" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="I4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N4" s="4"/>
       <c r="O4" s="7"/>
       <c r="P4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q4" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="R4" s="7"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U4" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="V4" s="6" t="s">
         <v>81</v>
-      </c>
-      <c r="V4" s="6" t="s">
-        <v>82</v>
       </c>
       <c r="W4" s="7"/>
       <c r="X4" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y4" s="4"/>
       <c r="Z4" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="D5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>35</v>
       </c>
       <c r="H5" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="I5" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="L5" s="5" t="s">
+      <c r="M5" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="N5" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>93</v>
       </c>
       <c r="O5" s="7"/>
       <c r="P5" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q5" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="Q5" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="R5" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S5" s="7"/>
       <c r="T5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="U5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="U5" s="4" t="s">
+      <c r="V5" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="V5" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="W5" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="X5" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Y5" s="4"/>
       <c r="Z5" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>34</v>
@@ -12097,72 +12299,72 @@
         <v>35</v>
       </c>
       <c r="H6" s="13" t="s">
+        <v>804</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="J6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="K6" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K6" s="6" t="s">
-        <v>39</v>
-      </c>
       <c r="L6" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M6" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="N6" s="6" t="s">
         <v>102</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>103</v>
       </c>
       <c r="O6" s="4"/>
       <c r="P6" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q6" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="Q6" s="5" t="s">
-        <v>105</v>
-      </c>
       <c r="R6" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S6" s="7"/>
       <c r="T6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="U6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="U6" s="4" t="s">
+      <c r="V6" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="V6" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="W6" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="X6" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Y6" s="4"/>
       <c r="Z6" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>34</v>
@@ -12171,72 +12373,72 @@
         <v>35</v>
       </c>
       <c r="H7" s="13" t="s">
+        <v>804</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="J7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="K7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K7" s="6" t="s">
-        <v>39</v>
-      </c>
       <c r="L7" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M7" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="N7" s="6" t="s">
         <v>111</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>112</v>
       </c>
       <c r="O7" s="4"/>
       <c r="P7" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q7" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="Q7" s="5" t="s">
-        <v>114</v>
-      </c>
       <c r="R7" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S7" s="7"/>
       <c r="T7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="U7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="U7" s="4" t="s">
+      <c r="V7" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="V7" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="W7" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="X7" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Y7" s="4"/>
       <c r="Z7" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>119</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>34</v>
@@ -12245,1520 +12447,1520 @@
         <v>35</v>
       </c>
       <c r="H8" s="13" t="s">
+        <v>804</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="J8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="K8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K8" s="6" t="s">
-        <v>39</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M8" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="N8" s="6" t="s">
         <v>120</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>121</v>
       </c>
       <c r="O8" s="4"/>
       <c r="P8" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q8" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="Q8" s="5" t="s">
-        <v>123</v>
-      </c>
       <c r="R8" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S8" s="7"/>
       <c r="T8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="U8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="U8" s="4" t="s">
+      <c r="V8" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="V8" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="W8" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X8" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Y8" s="4"/>
       <c r="Z8" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>127</v>
-      </c>
       <c r="D9" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="H9" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="H9" s="13" t="s">
-        <v>132</v>
-      </c>
       <c r="I9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="K9" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q9" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="Q9" s="5" t="s">
-        <v>135</v>
-      </c>
       <c r="R9" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S9" s="7"/>
       <c r="T9" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U9" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="V9" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="V9" s="5" t="s">
+      <c r="W9" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="W9" s="5" t="s">
-        <v>138</v>
-      </c>
       <c r="X9" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Y9" s="4"/>
       <c r="Z9" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="H10" s="13" t="s">
+        <v>803</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="L10" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="I10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K10" s="6" t="s">
+      <c r="M10" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="N10" s="6" t="s">
         <v>147</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>149</v>
       </c>
       <c r="O10" s="4"/>
       <c r="P10" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S10" s="7"/>
       <c r="T10" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="U10" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="V10" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="V10" s="5" t="s">
-        <v>137</v>
-      </c>
       <c r="W10" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="X10" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Y10" s="4"/>
       <c r="Z10" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="D11" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="F11" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>35</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>159</v>
+        <v>805</v>
       </c>
       <c r="I11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J11" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="K11" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L11" s="7"/>
       <c r="M11" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O11" s="4"/>
       <c r="P11" s="5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S11" s="7"/>
       <c r="T11" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="U11" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="V11" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="V11" s="5" t="s">
-        <v>137</v>
-      </c>
       <c r="W11" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="X11" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Y11" s="4"/>
       <c r="Z11" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>168</v>
-      </c>
       <c r="F12" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>35</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>159</v>
+        <v>805</v>
       </c>
       <c r="I12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J12" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="K12" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O12" s="4"/>
       <c r="P12" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S12" s="7"/>
       <c r="T12" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="U12" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="V12" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="V12" s="5" t="s">
-        <v>137</v>
-      </c>
       <c r="W12" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="X12" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Y12" s="4"/>
       <c r="Z12" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="F13" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>35</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J13" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="K13" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="L13" s="7"/>
       <c r="M13" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O13" s="4"/>
       <c r="P13" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S13" s="7"/>
       <c r="T13" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="V13" s="5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="W13" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="X13" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Y13" s="4"/>
       <c r="Z13" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>185</v>
+      <c r="A14" s="4" t="s">
+        <v>182</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="F14" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="G14" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="H14" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="I14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" s="5" t="s">
         <v>190</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>193</v>
       </c>
       <c r="L14" s="7"/>
       <c r="M14" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="P14" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="N14" s="6" t="s">
+      <c r="Q14" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="O14" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="P14" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q14" s="5" t="s">
-        <v>198</v>
-      </c>
       <c r="R14" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S14" s="7"/>
       <c r="T14" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="U14" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="V14" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="W14" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="X14" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Y14" s="4"/>
       <c r="Z14" s="5" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>202</v>
+      <c r="A15" s="4" t="s">
+        <v>199</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="F15" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>207</v>
-      </c>
       <c r="G15" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>208</v>
+        <v>801</v>
       </c>
       <c r="I15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J15" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="K15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L15" s="7"/>
       <c r="M15" s="5" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="N15" s="4"/>
       <c r="O15" s="6" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="R15" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="S15" s="7"/>
       <c r="T15" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="U15" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="V15" s="5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="W15" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="X15" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Y15" s="4"/>
       <c r="Z15" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="F16" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>220</v>
-      </c>
       <c r="G16" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>221</v>
+        <v>800</v>
       </c>
       <c r="I16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J16" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="K16" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L16" s="7"/>
       <c r="M16" s="15" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="N16" s="4"/>
       <c r="O16" s="6" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="R16" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="S16" s="7"/>
       <c r="T16" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="U16" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="V16" s="5" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="W16" s="5" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="X16" s="15" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="Y16" s="4"/>
       <c r="Z16" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="H17" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>236</v>
-      </c>
       <c r="I17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J17" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J17" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="K17" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L17" s="7"/>
       <c r="M17" s="5" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="O17" s="4"/>
       <c r="P17" s="5" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="R17" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S17" s="7"/>
       <c r="T17" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="U17" s="4" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="V17" s="5" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="W17" s="5" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="X17" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Y17" s="4"/>
       <c r="Z17" s="5" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>237</v>
+      <c r="A18" s="4" t="s">
+        <v>232</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="I18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J18" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="K18" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L18" s="7"/>
       <c r="M18" s="5" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="O18" s="4"/>
       <c r="P18" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="R18" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S18" s="7"/>
       <c r="T18" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="U18" s="4" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="V18" s="5" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="W18" s="5" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="X18" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Y18" s="4"/>
       <c r="Z18" s="5" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="F19" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="G19" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="H19" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="I19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="L19" s="7"/>
       <c r="M19" s="5" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="R19" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S19" s="7"/>
       <c r="T19" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="U19" s="4" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="V19" s="5" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="W19" s="5" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="X19" s="7"/>
       <c r="Y19" s="4"/>
       <c r="Z19" s="5" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>270</v>
+      <c r="A20" s="4" t="s">
+        <v>265</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D20" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="L20" s="7"/>
       <c r="M20" s="5" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="O20" s="4"/>
       <c r="P20" s="5" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="R20" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S20" s="7"/>
       <c r="T20" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="U20" s="4" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="V20" s="5" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="W20" s="5" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="X20" s="5" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="Y20" s="4"/>
       <c r="Z20" s="5" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>284</v>
-      </c>
       <c r="G21" s="4" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="5" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="L21" s="7"/>
       <c r="M21" s="15" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="N21" s="5"/>
       <c r="O21" s="6" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="R21" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="S21" s="7"/>
       <c r="T21" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="U21" s="4" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="V21" s="5" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="W21" s="7"/>
       <c r="X21" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y21" s="4"/>
       <c r="Z21" s="7"/>
     </row>
     <row r="22" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G22" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="H22" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>795</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="H22" s="14" t="s">
-        <v>299</v>
-      </c>
       <c r="I22" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="5" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="L22" s="7"/>
       <c r="M22" s="15" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="N22" s="16"/>
       <c r="O22" s="6" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="Q22" s="5" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="R22" s="7"/>
       <c r="S22" s="7"/>
       <c r="T22" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="U22" s="17" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="V22" s="5" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="W22" s="5"/>
       <c r="X22" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y22" s="4"/>
       <c r="Z22" s="7"/>
     </row>
     <row r="23" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>306</v>
+      <c r="A23" s="4" t="s">
+        <v>301</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C23" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>796</v>
-      </c>
       <c r="E23" s="5" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>311</v>
+        <v>806</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="5" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="T23" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="U23" s="5" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="V23" s="5" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="X23" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y23" s="2"/>
     </row>
     <row r="24" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>316</v>
+      <c r="A24" s="4" t="s">
+        <v>310</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>797</v>
+        <v>321</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>35</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J24" s="4"/>
       <c r="K24" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
       <c r="N24" s="6" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="Q24" s="5" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="R24" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="S24" s="7"/>
       <c r="T24" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="U24" s="4" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="V24" s="5" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="W24" s="7"/>
       <c r="X24" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y24" s="4"/>
       <c r="Z24" s="7"/>
     </row>
-    <row r="25" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>329</v>
+    <row r="25" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>323</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>798</v>
+        <v>321</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>35</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J25" s="4"/>
       <c r="K25" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
       <c r="N25" s="4" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="O25" s="4"/>
       <c r="P25" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="R25" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="S25" s="7"/>
       <c r="T25" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="U25" s="4" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="V25" s="5" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="W25" s="7"/>
       <c r="X25" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y25" s="4"/>
       <c r="Z25" s="7"/>
     </row>
     <row r="26" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>340</v>
+      <c r="A26" s="4" t="s">
+        <v>334</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C26" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>799</v>
-      </c>
       <c r="E26" s="5" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="H26" s="19">
-        <v>4.3761574074074099E-2</v>
+        <v>144</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>472</v>
       </c>
       <c r="I26" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="J26" s="7" t="s">
-        <v>38</v>
-      </c>
       <c r="K26" s="5" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="N26" s="4"/>
       <c r="O26" s="2"/>
       <c r="P26" s="5" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="Q26" s="5" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="R26" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T26" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="U26" s="4" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="V26" s="5" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="X26" s="5" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="Y26" s="2"/>
       <c r="Z26" s="5" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="G27" s="4" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="27" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+      <c r="H27" s="14" t="s">
         <v>352</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="I27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K27" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="M27" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>800</v>
-      </c>
-      <c r="E27" s="5" t="s">
+      <c r="N27" s="5" t="s">
         <v>355</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="H27" s="14" t="s">
-        <v>358</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="M27" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="N27" s="5" t="s">
-        <v>361</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="5" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="Q27" s="5" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="R27" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="T27" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="U27" s="4" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="V27" s="5" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="X27" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y27" s="2"/>
     </row>
-    <row r="28" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+    <row r="28" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K28" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="M28" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="N28" s="5" t="s">
         <v>368</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>801</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="H28" s="14" t="s">
-        <v>371</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="M28" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="N28" s="5" t="s">
-        <v>374</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="5" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="R28" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="T28" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="U28" s="4" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="V28" s="5" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="X28" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y28" s="2"/>
       <c r="Z28" s="5" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>802</v>
-      </c>
       <c r="E29" s="5" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>35</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="I29" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J29" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="J29" s="7" t="s">
-        <v>38</v>
-      </c>
       <c r="K29" s="5" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
       <c r="N29" s="4" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="O29" s="4"/>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
       <c r="R29" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="S29" s="7"/>
       <c r="T29" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="U29" s="4" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="V29" s="5" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="W29" s="7"/>
       <c r="X29" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y29" s="4"/>
       <c r="Z29" s="7"/>
     </row>
     <row r="30" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>387</v>
+      <c r="A30" s="4" t="s">
+        <v>381</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>802</v>
+        <v>379</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>35</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="I30" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J30" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
@@ -13767,1389 +13969,1389 @@
       <c r="O30" s="4"/>
       <c r="P30" s="7"/>
       <c r="Q30" s="5" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="R30" s="7"/>
       <c r="S30" s="7"/>
       <c r="T30" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="U30" s="4" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="V30" s="5" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="W30" s="7"/>
       <c r="X30" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y30" s="4"/>
       <c r="Z30" s="7"/>
     </row>
     <row r="31" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>807</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="N31" s="4" t="s">
         <v>393</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>803</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="H31" s="14" t="s">
-        <v>398</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="N31" s="4" t="s">
-        <v>400</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="7" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="R31" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="T31" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="U31" s="7" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="V31" s="5" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="X31" s="5" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="Y31" s="2"/>
     </row>
     <row r="32" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>404</v>
+      <c r="A32" s="4" t="s">
+        <v>397</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>802</v>
+        <v>379</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>35</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="I32" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J32" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="J32" s="7" t="s">
-        <v>38</v>
-      </c>
       <c r="K32" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
       <c r="N32" s="6" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="O32" s="4"/>
       <c r="P32" s="5" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="Q32" s="5" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="R32" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="S32" s="7"/>
       <c r="T32" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="U32" s="4" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="V32" s="5" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="W32" s="7"/>
       <c r="X32" s="5" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="Y32" s="4"/>
       <c r="Z32" s="7"/>
     </row>
     <row r="33" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>414</v>
+      <c r="A33" s="4" t="s">
+        <v>407</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>795</v>
+        <v>299</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="I33" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J33" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="J33" s="7" t="s">
-        <v>38</v>
-      </c>
       <c r="K33" s="5" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="M33" s="7"/>
       <c r="N33" s="4" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="O33" s="4"/>
       <c r="P33" s="7"/>
       <c r="Q33" s="5" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="R33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S33" s="7"/>
       <c r="T33" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="U33" s="4" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="V33" s="5" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="W33" s="7"/>
       <c r="X33" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y33" s="4"/>
       <c r="Z33" s="7"/>
     </row>
-    <row r="34" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
+    <row r="34" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>808</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="M34" s="5" t="s">
         <v>423</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>804</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="H34" s="14" t="s">
-        <v>429</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K34" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="M34" s="5" t="s">
-        <v>431</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="Q34" s="5" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="R34" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="T34" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="U34" s="4" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="V34" s="5" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="Y34" s="2"/>
     </row>
     <row r="35" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>435</v>
+      <c r="A35" s="4" t="s">
+        <v>427</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>804</v>
+        <v>425</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>439</v>
+        <v>799</v>
       </c>
       <c r="I35" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J35" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="J35" s="7" t="s">
-        <v>38</v>
-      </c>
       <c r="K35" s="5" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="M35" s="5" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="5" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="Q35" s="5" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="R35" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="T35" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="U35" s="4" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="V35" s="5" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="Y35" s="2"/>
     </row>
     <row r="36" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
-        <v>444</v>
+      <c r="A36" s="4" t="s">
+        <v>435</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>804</v>
+        <v>425</v>
       </c>
       <c r="E36" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="H36" s="14" t="s">
+        <v>799</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="L36" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="F36" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="H36" s="14" t="s">
-        <v>439</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K36" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="L36" s="5" t="s">
-        <v>447</v>
-      </c>
       <c r="M36" s="5" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" s="7" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="R36" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="T36" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="U36" s="4" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="V36" s="5" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="Y36" s="2"/>
     </row>
     <row r="37" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
-        <v>449</v>
+      <c r="A37" s="4" t="s">
+        <v>440</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>451</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>801</v>
+        <v>442</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>342</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H37" s="14" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="I37" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J37" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="J37" s="7" t="s">
-        <v>38</v>
-      </c>
       <c r="K37" s="5" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="M37" s="5" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="N37" s="4" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" s="5" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="Q37" s="5" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="R37" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="T37" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="U37" s="4" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="V37" s="5" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="X37" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y37" s="2"/>
       <c r="Z37" s="5" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="38" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>456</v>
+      <c r="A38" s="4" t="s">
+        <v>447</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>801</v>
+        <v>449</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>342</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>311</v>
+        <v>806</v>
       </c>
       <c r="I38" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J38" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="J38" s="7" t="s">
-        <v>38</v>
-      </c>
       <c r="K38" s="7" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="L38" s="7"/>
       <c r="M38" s="7"/>
       <c r="N38" s="4" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="O38" s="4"/>
       <c r="P38" s="7" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="Q38" s="5" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="R38" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="S38" s="7"/>
       <c r="T38" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="U38" s="4" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="V38" s="5" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="W38" s="7" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="X38" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y38" s="4"/>
       <c r="Z38" s="7"/>
     </row>
-    <row r="39" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
-        <v>465</v>
+    <row r="39" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>456</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>801</v>
+        <v>458</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>342</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="H39" s="14" t="s">
-        <v>471</v>
+        <v>809</v>
       </c>
       <c r="I39" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J39" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="J39" s="7" t="s">
-        <v>38</v>
-      </c>
       <c r="K39" s="5" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="L39" s="7"/>
       <c r="M39" s="7"/>
       <c r="N39" s="4"/>
       <c r="O39" s="6" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="Q39" s="5" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="R39" s="7"/>
       <c r="S39" s="7"/>
       <c r="T39" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="U39" s="4" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="V39" s="5" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="W39" s="7" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="X39" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y39" s="4"/>
       <c r="Z39" s="7"/>
     </row>
     <row r="40" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="20" t="s">
-        <v>476</v>
+      <c r="A40" s="4" t="s">
+        <v>466</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>805</v>
+        <v>473</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="H40" s="14" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="I40" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J40" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="J40" s="7" t="s">
-        <v>38</v>
-      </c>
       <c r="K40" s="7" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" s="7" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="R40" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="T40" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="U40" s="7" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="V40" s="5" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="X40" s="5" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="Y40" s="2"/>
     </row>
     <row r="41" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="21" t="s">
-        <v>484</v>
-      </c>
-      <c r="B41" s="22" t="s">
-        <v>485</v>
-      </c>
-      <c r="C41" s="22" t="s">
-        <v>486</v>
-      </c>
-      <c r="D41" s="22" t="s">
+      <c r="A41" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>475</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>476</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="E41" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="F41" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="G41" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="E41" s="22" t="s">
+      <c r="H41" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="F41" s="21" t="s">
+      <c r="I41" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="J41" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="K41" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="G41" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="H41" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="I41" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="J41" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="K41" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="L41" s="22" t="s">
-        <v>487</v>
-      </c>
-      <c r="M41" s="22"/>
-      <c r="N41" s="25"/>
-      <c r="O41" s="25"/>
-      <c r="P41" s="22" t="s">
-        <v>488</v>
-      </c>
-      <c r="Q41" s="22" t="s">
-        <v>489</v>
-      </c>
-      <c r="R41" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="S41" s="21"/>
-      <c r="T41" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="U41" s="25" t="s">
-        <v>199</v>
-      </c>
-      <c r="V41" s="22" t="s">
-        <v>490</v>
-      </c>
-      <c r="W41" s="22"/>
-      <c r="X41" s="25"/>
-      <c r="Y41" s="21"/>
-      <c r="Z41" s="22" t="s">
-        <v>201</v>
+      <c r="L41" s="21" t="s">
+        <v>477</v>
+      </c>
+      <c r="M41" s="21"/>
+      <c r="N41" s="24"/>
+      <c r="O41" s="24"/>
+      <c r="P41" s="21" t="s">
+        <v>478</v>
+      </c>
+      <c r="Q41" s="21" t="s">
+        <v>479</v>
+      </c>
+      <c r="R41" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="S41" s="20"/>
+      <c r="T41" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="U41" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="V41" s="21" t="s">
+        <v>480</v>
+      </c>
+      <c r="W41" s="21"/>
+      <c r="X41" s="24"/>
+      <c r="Y41" s="20"/>
+      <c r="Z41" s="21" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="42" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="20" t="s">
+      <c r="A42" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>482</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>483</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="B42" s="22" t="s">
-        <v>492</v>
-      </c>
-      <c r="C42" s="22" t="s">
-        <v>493</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>806</v>
-      </c>
       <c r="E42" s="5" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>497</v>
-      </c>
-      <c r="I42" s="21" t="s">
+        <v>487</v>
+      </c>
+      <c r="I42" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="J42" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="J42" s="25" t="s">
-        <v>38</v>
-      </c>
       <c r="K42" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L42" s="7"/>
       <c r="M42" s="5" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
       <c r="P42" s="7" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="Q42" s="5" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="R42" s="7"/>
       <c r="S42" s="7"/>
-      <c r="T42" s="22" t="s">
-        <v>152</v>
+      <c r="T42" s="21" t="s">
+        <v>150</v>
       </c>
       <c r="U42" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="V42" s="22" t="s">
-        <v>502</v>
+        <v>491</v>
+      </c>
+      <c r="V42" s="21" t="s">
+        <v>492</v>
       </c>
       <c r="W42" s="7" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="X42" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y42" s="4"/>
       <c r="Z42" s="7"/>
     </row>
     <row r="43" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="20" t="s">
-        <v>503</v>
+      <c r="A43" s="4" t="s">
+        <v>493</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="F43" s="26"/>
+        <v>496</v>
+      </c>
+      <c r="F43" s="25"/>
       <c r="G43" s="4" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>507</v>
+        <v>802</v>
       </c>
       <c r="I43" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J43" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J43" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="K43" s="7" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="L43" s="7"/>
       <c r="M43" s="5" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
       <c r="R43" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S43" s="7"/>
-      <c r="T43" s="22" t="s">
-        <v>152</v>
+      <c r="T43" s="21" t="s">
+        <v>150</v>
       </c>
       <c r="U43" s="4" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="V43" s="5" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="W43" s="7" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="X43" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y43" s="4"/>
       <c r="Z43" s="7"/>
     </row>
     <row r="44" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="20" t="s">
-        <v>511</v>
+      <c r="A44" s="4" t="s">
+        <v>500</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>514</v>
-      </c>
-      <c r="F44" s="26"/>
+        <v>503</v>
+      </c>
+      <c r="F44" s="25"/>
       <c r="G44" s="4" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>507</v>
+        <v>802</v>
       </c>
       <c r="I44" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J44" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J44" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="K44" s="7" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="L44" s="7"/>
       <c r="M44" s="5" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="N44" s="4"/>
       <c r="O44" s="4"/>
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
       <c r="R44" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S44" s="7"/>
-      <c r="T44" s="22" t="s">
-        <v>152</v>
+      <c r="T44" s="21" t="s">
+        <v>150</v>
       </c>
       <c r="U44" s="4" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="V44" s="5" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="W44" s="7" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="X44" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y44" s="4"/>
       <c r="Z44" s="7"/>
     </row>
     <row r="45" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="20" t="s">
-        <v>516</v>
+      <c r="A45" s="4" t="s">
+        <v>505</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="F45" s="26"/>
+        <v>496</v>
+      </c>
+      <c r="F45" s="25"/>
       <c r="G45" s="4" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>507</v>
+        <v>802</v>
       </c>
       <c r="I45" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J45" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J45" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="K45" s="7" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="L45" s="7"/>
       <c r="M45" s="5" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
       <c r="R45" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S45" s="7"/>
-      <c r="T45" s="22" t="s">
-        <v>152</v>
+      <c r="T45" s="21" t="s">
+        <v>150</v>
       </c>
       <c r="U45" s="4" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="V45" s="5" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="W45" s="7" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="X45" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y45" s="4"/>
       <c r="Z45" s="7"/>
     </row>
     <row r="46" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="20" t="s">
-        <v>519</v>
+      <c r="A46" s="4" t="s">
+        <v>508</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>795</v>
+        <v>299</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="F46" s="27"/>
+        <v>511</v>
+      </c>
+      <c r="F46" s="26"/>
       <c r="G46" s="4" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>523</v>
+        <v>294</v>
       </c>
       <c r="I46" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J46" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J46" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="K46" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="M46" s="5" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="N46" s="4"/>
       <c r="O46" s="2"/>
       <c r="R46" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="T46" s="22" t="s">
-        <v>152</v>
+        <v>62</v>
+      </c>
+      <c r="T46" s="21" t="s">
+        <v>150</v>
       </c>
       <c r="U46" s="4" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="V46" s="5" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="W46" s="7" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="X46" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y46" s="2"/>
     </row>
     <row r="47" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="20" t="s">
-        <v>526</v>
+      <c r="A47" s="4" t="s">
+        <v>514</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>796</v>
+        <v>308</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H47" s="14" t="s">
-        <v>311</v>
+        <v>806</v>
       </c>
       <c r="I47" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J47" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="J47" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="K47" s="5" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="N47" s="4"/>
       <c r="O47" s="4" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
       <c r="R47" s="7"/>
       <c r="S47" s="7"/>
       <c r="T47" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="U47" s="5" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="V47" s="5" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="X47" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y47" s="4"/>
       <c r="Z47" s="7"/>
     </row>
     <row r="48" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="20" t="s">
-        <v>533</v>
+      <c r="A48" s="4" t="s">
+        <v>521</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>807</v>
+        <v>795</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="G48" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H48" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="H48" s="14" t="s">
-        <v>57</v>
-      </c>
       <c r="I48" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J48" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="J48" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="K48" s="7" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="N48" s="2"/>
-      <c r="O48" s="22" t="s">
-        <v>538</v>
-      </c>
-      <c r="P48" s="22"/>
-      <c r="Q48" s="22" t="s">
-        <v>539</v>
+      <c r="O48" s="21" t="s">
+        <v>526</v>
+      </c>
+      <c r="P48" s="21"/>
+      <c r="Q48" s="21" t="s">
+        <v>527</v>
       </c>
       <c r="R48" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T48" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="U48" s="5" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="V48" s="5" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="W48" s="7" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="X48" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y48" s="2"/>
     </row>
-    <row r="49" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="20" t="s">
-        <v>541</v>
+    <row r="49" spans="1:26" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>529</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>808</v>
+        <v>796</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="H49" s="14" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="I49" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J49" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="J49" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="K49" s="7" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="R49" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T49" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="U49" s="5" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="V49" s="5" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="W49" s="7" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="X49" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y49" s="2"/>
     </row>
     <row r="50" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
-        <v>550</v>
+      <c r="A50" s="4" t="s">
+        <v>538</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>809</v>
+        <v>545</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="F50" s="7"/>
       <c r="G50" s="4" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="I50" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J50" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="J50" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="K50" s="7" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="L50" s="7"/>
       <c r="M50" s="6" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
       <c r="P50" s="7"/>
       <c r="Q50" s="7"/>
       <c r="R50" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S50" s="7"/>
       <c r="T50" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="U50" s="7" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="V50" s="5" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="W50" s="7" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="X50" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y50" s="4"/>
       <c r="Z50" s="7"/>
     </row>
     <row r="51" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
-        <v>559</v>
+      <c r="A51" s="4" t="s">
+        <v>547</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>809</v>
+        <v>545</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="I51" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J51" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="J51" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="M51" s="6" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="R51" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T51" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="U51" s="7" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="V51" s="5" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="W51" s="7" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="X51" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y51" s="4"/>
     </row>
     <row r="52" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
-        <v>565</v>
+      <c r="A52" s="4" t="s">
+        <v>553</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="D52" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E52" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="F52" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F52" s="4" t="s">
+      <c r="G52" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G52" s="4" t="s">
+      <c r="H52" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="H52" s="13" t="s">
+      <c r="I52" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K52" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="I52" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="J52" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K52" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="L52" s="7"/>
       <c r="M52" s="6" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="N52" s="4"/>
       <c r="O52" s="4"/>
       <c r="P52" s="7"/>
       <c r="Q52" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="R52" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="R52" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="S52" s="7"/>
       <c r="T52" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="U52" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V52" s="5" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="W52" s="7" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="X52" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y52" s="4"/>
       <c r="Z52" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="1048551" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15177,23 +15379,25 @@
     <row r="1048573" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1048574" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1048575" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Sheet3">
     <tabColor rgb="FF5B9BD5"/>
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15209,7 +15413,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -15221,290 +15425,268 @@
         <v>10</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
-        <v>572</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>794</v>
-      </c>
+      <c r="A2" s="27" t="s">
+        <v>560</v>
+      </c>
+      <c r="B2" s="11"/>
       <c r="C2" s="10"/>
       <c r="D2" s="11" t="s">
-        <v>573</v>
-      </c>
-      <c r="E2" s="29"/>
+        <v>810</v>
+      </c>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
-        <v>574</v>
+      <c r="A3" s="27" t="s">
+        <v>561</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>577</v>
+        <v>564</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
-        <v>578</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>794</v>
-      </c>
+      <c r="A4" s="29" t="s">
+        <v>565</v>
+      </c>
+      <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="10" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>591</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>794</v>
-      </c>
+        <v>578</v>
+      </c>
+      <c r="B8" s="10"/>
       <c r="C8" s="2"/>
       <c r="D8" s="10" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>794</v>
-      </c>
+        <v>580</v>
+      </c>
+      <c r="B9" s="10"/>
       <c r="C9" s="2"/>
       <c r="D9" s="10" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>595</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>794</v>
-      </c>
+        <v>582</v>
+      </c>
+      <c r="B10" s="10"/>
       <c r="C10" s="2"/>
       <c r="D10" s="10" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>597</v>
+        <v>584</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>577</v>
+        <v>564</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>601</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>794</v>
-      </c>
+        <v>588</v>
+      </c>
+      <c r="B14" s="10"/>
       <c r="C14" s="2"/>
       <c r="D14" s="10" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>602</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>794</v>
-      </c>
+        <v>589</v>
+      </c>
+      <c r="B15" s="10"/>
       <c r="C15" s="2"/>
       <c r="D15" s="10" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>604</v>
+        <v>591</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>608</v>
+        <v>595</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>611</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>794</v>
-      </c>
+        <v>598</v>
+      </c>
+      <c r="B19" s="10"/>
       <c r="D19" s="10" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>612</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>794</v>
-      </c>
+        <v>599</v>
+      </c>
+      <c r="B20" s="10"/>
       <c r="D20" s="10" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
-        <v>614</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>794</v>
-      </c>
+      <c r="A21" s="30" t="s">
+        <v>601</v>
+      </c>
+      <c r="B21" s="10"/>
       <c r="D21" s="10" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="31" t="s">
-        <v>616</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>794</v>
-      </c>
+      <c r="A22" s="30" t="s">
+        <v>603</v>
+      </c>
+      <c r="B22" s="10"/>
       <c r="D22" s="10" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
     </row>
     <row r="1048573" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15520,14 +15702,14 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Sheet4">
     <tabColor rgb="FF5B9BD5"/>
   </sheetPr>
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15543,7 +15725,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -15555,7 +15737,7 @@
         <v>10</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -15581,18 +15763,18 @@
     </row>
     <row r="2" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>620</v>
+        <v>607</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>621</v>
-      </c>
-      <c r="E2" s="29"/>
+        <v>608</v>
+      </c>
+      <c r="E2" s="28"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -15617,12 +15799,12 @@
     </row>
     <row r="3" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="2"/>
       <c r="D3" s="10" t="s">
-        <v>623</v>
+        <v>610</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -15649,16 +15831,16 @@
     </row>
     <row r="4" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>626</v>
+        <v>613</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -15685,16 +15867,16 @@
     </row>
     <row r="5" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>626</v>
+        <v>613</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -15721,12 +15903,12 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="2"/>
       <c r="D6" s="10" t="s">
-        <v>628</v>
+        <v>615</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -15753,12 +15935,12 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>629</v>
+        <v>616</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="2"/>
       <c r="D7" s="10" t="s">
-        <v>630</v>
+        <v>617</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -15785,16 +15967,16 @@
     </row>
     <row r="8" spans="1:26" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>631</v>
+        <v>618</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>633</v>
+        <v>620</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -15821,16 +16003,16 @@
     </row>
     <row r="9" spans="1:26" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>635</v>
+        <v>622</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -15857,12 +16039,12 @@
     </row>
     <row r="10" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>636</v>
+        <v>623</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="2"/>
       <c r="D10" s="10" t="s">
-        <v>637</v>
+        <v>624</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -15889,12 +16071,12 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>638</v>
+        <v>625</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="2"/>
       <c r="D11" s="10" t="s">
-        <v>639</v>
+        <v>626</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -15921,12 +16103,12 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>640</v>
+        <v>627</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="2"/>
       <c r="D12" s="10" t="s">
-        <v>641</v>
+        <v>628</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -15953,12 +16135,12 @@
     </row>
     <row r="13" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>642</v>
+        <v>629</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="2"/>
       <c r="D13" s="10" t="s">
-        <v>643</v>
+        <v>630</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -15985,14 +16167,14 @@
     </row>
     <row r="14" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="11" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>646</v>
+        <v>633</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -16019,12 +16201,12 @@
     </row>
     <row r="15" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="2"/>
       <c r="D15" s="10" t="s">
-        <v>647</v>
+        <v>634</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -16051,12 +16233,12 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="2"/>
       <c r="D16" s="10" t="s">
-        <v>649</v>
+        <v>636</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -16083,12 +16265,12 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="2"/>
       <c r="D17" s="10" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -16115,12 +16297,12 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="2"/>
       <c r="D18" s="10" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -17136,14 +17318,14 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Sheet5">
     <tabColor rgb="FF5B9BD5"/>
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17157,13 +17339,13 @@
   <sheetData>
     <row r="1" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>654</v>
+        <v>641</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>655</v>
+        <v>642</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -18196,31 +18378,32 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Sheet6">
     <tabColor rgb="FF5B9BD5"/>
   </sheetPr>
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.85546875"/>
-    <col min="2" max="2" width="31.28515625"/>
+    <col min="1" max="1" width="65.85546875" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875"/>
     <col min="3" max="3" width="27.7109375"/>
-    <col min="4" max="26" width="14.85546875"/>
+    <col min="4" max="4" width="127" customWidth="1"/>
+    <col min="5" max="26" width="14.85546875"/>
     <col min="27" max="1025" width="14.140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>656</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>643</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>10</v>
@@ -18249,37 +18432,205 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" t="s">
+        <v>811</v>
+      </c>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>812</v>
+      </c>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" t="s">
+        <v>813</v>
+      </c>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" t="s">
+        <v>814</v>
+      </c>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" t="s">
+        <v>815</v>
+      </c>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" t="s">
+        <v>816</v>
+      </c>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B8" t="s">
+        <v>817</v>
+      </c>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B9" t="s">
+        <v>818</v>
+      </c>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B10" t="s">
+        <v>819</v>
+      </c>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="B11" t="s">
+        <v>820</v>
+      </c>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B12" t="s">
+        <v>822</v>
+      </c>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B13" t="s">
+        <v>821</v>
+      </c>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>823</v>
+      </c>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>824</v>
+      </c>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>825</v>
+      </c>
+      <c r="D16" s="12"/>
+    </row>
+    <row r="17" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="B17" t="s">
+        <v>826</v>
+      </c>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="B18" t="s">
+        <v>827</v>
+      </c>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="B19" t="s">
+        <v>828</v>
+      </c>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B20" t="s">
+        <v>829</v>
+      </c>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="B21" t="s">
+        <v>830</v>
+      </c>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="B22" t="s">
+        <v>831</v>
+      </c>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19246,8 +19597,6 @@
     <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -19256,14 +19605,14 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Sheet7">
     <tabColor rgb="FF5B9BD5"/>
   </sheetPr>
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19279,7 +19628,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>657</v>
+        <v>644</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -19291,7 +19640,7 @@
         <v>10</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>11</v>
@@ -20285,14 +20634,14 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Sheet8">
     <tabColor rgb="FF5B9BD5"/>
   </sheetPr>
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20309,22 +20658,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>661</v>
+        <v>648</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>662</v>
+        <v>649</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>663</v>
+        <v>650</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -21315,7 +21664,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Sheet9">
     <tabColor rgb="FF5B9BD5"/>
   </sheetPr>
   <dimension ref="A1:F1000"/>
@@ -21333,10 +21682,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>664</v>
+        <v>651</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>10</v>
@@ -21345,10 +21694,10 @@
         <v>18</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/source-data/dataTrento/dataTrento.xlsx
+++ b/source-data/dataTrento/dataTrento.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="833">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="834">
   <si>
     <t>PSDURI</t>
   </si>
@@ -2972,6 +2972,9 @@
   </si>
   <si>
     <t>R90 - Creative, arts and entertainment activities</t>
+  </si>
+  <si>
+    <t>08.2 - Cultural services</t>
   </si>
 </sst>
 </file>
@@ -11882,8 +11885,8 @@
   </sheetPr>
   <dimension ref="A1:Z1048575"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12017,7 +12020,7 @@
         <v>35</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>804</v>
+        <v>833</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>36</v>

--- a/source-data/dataTrento/dataTrento.xlsx
+++ b/source-data/dataTrento/dataTrento.xlsx
@@ -11886,7 +11886,7 @@
   <dimension ref="A1:Z1048575"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13704,7 +13704,7 @@
       <c r="I26" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="J26" s="7" t="s">
+      <c r="J26" s="6" t="s">
         <v>37</v>
       </c>
       <c r="K26" s="5" t="s">
@@ -13769,7 +13769,7 @@
       <c r="I27" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="J27" s="7" t="s">
+      <c r="J27" s="6" t="s">
         <v>37</v>
       </c>
       <c r="K27" s="5" t="s">
@@ -13833,7 +13833,7 @@
       <c r="I28" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="J28" s="7" t="s">
+      <c r="J28" s="6" t="s">
         <v>37</v>
       </c>
       <c r="K28" s="5" t="s">
@@ -13900,7 +13900,7 @@
       <c r="I29" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="J29" s="7" t="s">
+      <c r="J29" s="6" t="s">
         <v>37</v>
       </c>
       <c r="K29" s="5" t="s">
@@ -13962,7 +13962,7 @@
       <c r="I30" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="J30" s="7" t="s">
+      <c r="J30" s="6" t="s">
         <v>37</v>
       </c>
       <c r="K30" s="7"/>
@@ -14020,7 +14020,7 @@
       <c r="I31" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="J31" s="7" t="s">
+      <c r="J31" s="6" t="s">
         <v>37</v>
       </c>
       <c r="K31" s="7" t="s">
@@ -14078,7 +14078,7 @@
       <c r="I32" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="J32" s="7" t="s">
+      <c r="J32" s="6" t="s">
         <v>37</v>
       </c>
       <c r="K32" s="7" t="s">
@@ -14144,7 +14144,7 @@
       <c r="I33" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J33" s="7" t="s">
+      <c r="J33" s="6" t="s">
         <v>37</v>
       </c>
       <c r="K33" s="5" t="s">
@@ -14210,7 +14210,7 @@
       <c r="I34" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J34" s="7" t="s">
+      <c r="J34" s="6" t="s">
         <v>37</v>
       </c>
       <c r="K34" s="5" t="s">
@@ -14269,7 +14269,7 @@
       <c r="I35" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J35" s="7" t="s">
+      <c r="J35" s="6" t="s">
         <v>37</v>
       </c>
       <c r="K35" s="5" t="s">
@@ -14328,7 +14328,7 @@
       <c r="I36" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J36" s="7" t="s">
+      <c r="J36" s="6" t="s">
         <v>37</v>
       </c>
       <c r="K36" s="5" t="s">
@@ -14387,7 +14387,7 @@
       <c r="I37" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="J37" s="7" t="s">
+      <c r="J37" s="6" t="s">
         <v>37</v>
       </c>
       <c r="K37" s="5" t="s">
@@ -14457,7 +14457,7 @@
       <c r="I38" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="J38" s="7" t="s">
+      <c r="J38" s="6" t="s">
         <v>37</v>
       </c>
       <c r="K38" s="7" t="s">
@@ -14525,7 +14525,7 @@
       <c r="I39" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="J39" s="7" t="s">
+      <c r="J39" s="6" t="s">
         <v>37</v>
       </c>
       <c r="K39" s="5" t="s">
@@ -14591,7 +14591,7 @@
       <c r="I40" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="J40" s="7" t="s">
+      <c r="J40" s="6" t="s">
         <v>37</v>
       </c>
       <c r="K40" s="7" t="s">
@@ -14649,7 +14649,7 @@
       <c r="I41" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="J41" s="24" t="s">
+      <c r="J41" s="6" t="s">
         <v>37</v>
       </c>
       <c r="K41" s="21" t="s">
@@ -14715,7 +14715,7 @@
       <c r="I42" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="J42" s="24" t="s">
+      <c r="J42" s="6" t="s">
         <v>37</v>
       </c>
       <c r="K42" s="7" t="s">
@@ -15024,7 +15024,7 @@
       <c r="I47" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J47" s="4" t="s">
+      <c r="J47" s="6" t="s">
         <v>37</v>
       </c>
       <c r="K47" s="5" t="s">
@@ -15087,7 +15087,7 @@
       <c r="I48" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J48" s="4" t="s">
+      <c r="J48" s="6" t="s">
         <v>37</v>
       </c>
       <c r="K48" s="7" t="s">
@@ -15146,7 +15146,7 @@
       <c r="I49" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J49" s="4" t="s">
+      <c r="J49" s="6" t="s">
         <v>37</v>
       </c>
       <c r="K49" s="7" t="s">
@@ -15200,7 +15200,7 @@
       <c r="I50" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="J50" s="4" t="s">
+      <c r="J50" s="6" t="s">
         <v>37</v>
       </c>
       <c r="K50" s="7" t="s">
@@ -15261,7 +15261,7 @@
       <c r="I51" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="J51" s="4" t="s">
+      <c r="J51" s="6" t="s">
         <v>37</v>
       </c>
       <c r="M51" s="6" t="s">
@@ -15317,7 +15317,7 @@
       <c r="I52" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="J52" s="4" t="s">
+      <c r="J52" s="6" t="s">
         <v>37</v>
       </c>
       <c r="K52" s="7" t="s">

--- a/source-data/dataTrento/dataTrento.xlsx
+++ b/source-data/dataTrento/dataTrento.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\servaism\git\Trento_conversionToRDF\source-data\dataTrento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stanie\git\Trento_conversionToRDF\source-data\dataTrento\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="828">
   <si>
     <t>PSDURI</t>
   </si>
@@ -201,10 +201,6 @@
 - a mezzo posta mediante raccomandata con ricevuta di ritorno; ai fini dell’ammissione fa fede la data del timbro dell’ufficio postale accettante;
 - a mezzo fax al numero corrispondente del Servizio attività culturali (solo per soggetti privati);
 - per via telematica alla casella di posta elettronica certificata del Servizio attività culturali.</t>
-  </si>
-  <si>
-    <t>P1M15D
-Decorrenza: Dal giorno successivo alla scadenza di ciascun trimestre/bimestre di riferimento</t>
   </si>
   <si>
     <t>Marca da bollo da 16 euro, se non esenti</t>
@@ -287,10 +283,6 @@
 - per via telematica alla casella di posta elettronica certificata del Servizio agricoltura.</t>
   </si>
   <si>
-    <t>P1M
-Decorrenza: per il primo rilascio dalla data di valutazione delle conoscenze acquisite, per il rinnovo dal giorno successivo al ricevimento della domanda.</t>
-  </si>
-  <si>
     <t>Marca da bollo da 16 euro</t>
   </si>
   <si>
@@ -392,10 +384,6 @@
 - Deliberazione della Giunta provinciale n. 2527 del 29 dicembre 2016
 - Deliberazione della Giunta provinciale n. 1621 del 5 ottobre 2017
 - Deliberazione della Giunta provinciale n. 2339 del 28 dicembre 2017</t>
-  </si>
-  <si>
-    <t>P3M
-Decorrenza: dal giorno successivo al termine ultimo per la presentazione delle domande</t>
   </si>
   <si>
     <t>p_TN_397</t>
@@ -437,10 +425,6 @@
 </t>
   </si>
   <si>
-    <t>P4M 
-Decorrenza: dal giorno successivo al termine ultimo per la presentazione delle domande</t>
-  </si>
-  <si>
     <t>p_TN_407</t>
   </si>
   <si>
@@ -482,10 +466,6 @@
 - Deliberazione della Giunta provinciale n. 1621 del 5 ottobre 2017
 - Deliberazione della Giunta provinciale n. 2339 del 28 dicembre 2017
 "</t>
-  </si>
-  <si>
-    <t>P3M 
-Decorrenza: dal giorno successivo al termine ultimo per la presentazione delle domande</t>
   </si>
   <si>
     <t>p_TN_395_396</t>
@@ -534,10 +514,6 @@
 </t>
   </si>
   <si>
-    <t>P5M più il tempo necessario al beneficiario per presentare la documentazione necessaria dopo l'approvazione della graduatoria 
-Decorrenza: dal giorno successivo al termine ultimo per la presentazione delle domande</t>
-  </si>
-  <si>
     <t>P_TN_748</t>
   </si>
   <si>
@@ -590,10 +566,6 @@
 - per via telematica alla casella di posta elettronica certificata del Servizio turismo e sport.</t>
   </si>
   <si>
-    <t>P6M 
-Decorrenza: dal giorno successivo al termine ultimo per la presentazione delle domande</t>
-  </si>
-  <si>
     <t>Attività economiche - Turismo</t>
   </si>
   <si>
@@ -677,10 +649,6 @@
   <si>
     <t>- Legge provinciale n. 4 del 21 aprile 2016 - art. 15, comma 1, lett. c) e d)
 - Deliberazione della Giunta provinciale n. 111 del 27 gennaio 2017</t>
-  </si>
-  <si>
-    <t>P2M 
-Decorrenza: dal giorno successivo al ricevimento della domanda</t>
   </si>
   <si>
     <t>p_TN_2016</t>
@@ -887,11 +855,6 @@
     <t>S241NF</t>
   </si>
   <si>
-    <t>P3M se l'AUT comprende provvedimenti per i quali le norme di riferimento fissano il termine per la conclusione del procedimento entro 90 giorni;
-P4M se per almeno uno dei provvedimenti compresi nell'AUT la norma di riferimento prevede un termine per la conclusione del procedimento superiore a 90 giorni;
-Decorrenza: dal giorno successivo al ricevimento della domanda</t>
-  </si>
-  <si>
     <t>p_TN_651</t>
   </si>
   <si>
@@ -941,10 +904,6 @@
 - a mezzo fax al numero corrispondente del Servizio autorizzazioni e valutazioni ambientali (solo per soggetti privati);
 - per via telematica alla casella di posta elettronica certificata del Servizio autorizzazioni e valutazioni ambientali.
 Nel caso in cui le richieste di realizzazione di nuove strutture destinate ad ospitare impianti fissi di telecomunicazione riguardino siti sensibili, le domande sono presentate per il tramite del comune territorialmente competente.</t>
-  </si>
-  <si>
-    <t>P3M 
-Decorrenza: dal giorno successivo al ricevimento della domanda</t>
   </si>
   <si>
     <t>Marca da bollo da 16 euro.
@@ -1018,10 +977,6 @@
 - per via telematica alla casella di posta elettronica certificata del Servizio attività internazionali.</t>
   </si>
   <si>
-    <t>P2M15D 
-Decorrenza: dal giorno successivo al termine ultimo per la presentazione delle domande</t>
-  </si>
-  <si>
     <t>Sanità e sociale - solidarietà internazionale</t>
   </si>
   <si>
@@ -1048,12 +1003,6 @@
   <si>
     <t xml:space="preserve">Legge provinciale n. 10 del 17 marzo 1988 - art. 2 b) bis
 Deliberazione della Giunta provinciale n. 2311 del 28 dicembre 2017 </t>
-  </si>
-  <si>
-    <t>P1M per la pubblicazione della prima graduatoria
-Decorrenza: dal giorno successivo al termine ultimo per la presentazione delle domande
-P1M per l'approvazione della proposta progettuale completa
-Decorrenza: dal giorno successivo alla presentazione della proposta completa</t>
   </si>
   <si>
     <t>p_TN_1651</t>
@@ -1123,10 +1072,6 @@
 Il professionista può presentare l’atto di aggiornamento presso l’ufficio competente solo in caso di malfunzionamento del servizio telematico che dovesse persistere con tempi non compatibili con le scadenze dell'adempimento. In tal caso il professionista dovrà allegare all'atto di aggiornamento un’autodichiarazione del malfunzionamento riscontrato.</t>
   </si>
   <si>
-    <t>P1M15D 
-Decorrenza: dal giorno successivo al ricevimento della domanda</t>
-  </si>
-  <si>
     <t>Ambiente e territorio - Edilizia e urbanistica - Servizi urbanistici diversi</t>
   </si>
   <si>
@@ -1154,11 +1099,6 @@
 Legge n. 17 del 17 febbraio 1985
 Decreto del Presidente della Repubblica n. 1142 dell'1 dicembre 1949
 Decreto Ministeriale n. 701 del 19 aprile 1994</t>
-  </si>
-  <si>
-    <t>P3M per le categorie ordinarie di fabbricati
-P6M per le categorie speciali-particolari di fabbricati 
-Decorrenza: dal giorno successivo al ricevimento della domanda</t>
   </si>
   <si>
     <t>Per ogni unità di nuova costruzione ovvero derivata da dichiarazione di variazione è previsto il versamento di euro 50,00 se appartenente alle categorie a destinazione ordinaria (categorie dei gruppi A, B e C) e a quelle censite senza rendita, oppure il versamento di euro 100,00 se appartenente alle categorie a destinazione speciale e particolare (categorie dei gruppi D ed E).</t>
@@ -2975,6 +2915,30 @@
   </si>
   <si>
     <t>08.2 - Cultural services</t>
+  </si>
+  <si>
+    <t>P1M15D</t>
+  </si>
+  <si>
+    <t>P1M</t>
+  </si>
+  <si>
+    <t>P3M</t>
+  </si>
+  <si>
+    <t>P4M</t>
+  </si>
+  <si>
+    <t>P5M</t>
+  </si>
+  <si>
+    <t>P6M</t>
+  </si>
+  <si>
+    <t>P2M</t>
+  </si>
+  <si>
+    <t>P2M15D</t>
   </si>
 </sst>
 </file>
@@ -4656,22 +4620,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>655</v>
+        <v>641</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>656</v>
+        <v>642</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>657</v>
+        <v>643</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>658</v>
+        <v>644</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>659</v>
+        <v>645</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>660</v>
+        <v>646</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5683,7 +5647,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>661</v>
+        <v>647</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
@@ -5695,7 +5659,7 @@
         <v>11</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>662</v>
+        <v>648</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6707,7 +6671,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
-        <v>663</v>
+        <v>649</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>5</v>
@@ -7724,16 +7688,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>664</v>
+        <v>650</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>665</v>
+        <v>651</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>666</v>
+        <v>652</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8745,22 +8709,22 @@
   <sheetData>
     <row r="1" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>667</v>
+        <v>653</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>665</v>
+        <v>651</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>666</v>
+        <v>652</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
@@ -8776,7 +8740,7 @@
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="12" t="s">
-        <v>669</v>
+        <v>655</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -8801,10 +8765,10 @@
     </row>
     <row r="3" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="5" t="s">
@@ -8812,7 +8776,7 @@
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="6" t="s">
-        <v>670</v>
+        <v>656</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -8837,10 +8801,10 @@
     </row>
     <row r="4" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="5" t="s">
@@ -8848,7 +8812,7 @@
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="6" t="s">
-        <v>671</v>
+        <v>657</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -8873,10 +8837,10 @@
     </row>
     <row r="5" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="5" t="s">
@@ -8884,7 +8848,7 @@
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="6" t="s">
-        <v>672</v>
+        <v>658</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -8909,10 +8873,10 @@
     </row>
     <row r="6" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="5" t="s">
@@ -8920,7 +8884,7 @@
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="6" t="s">
-        <v>673</v>
+        <v>659</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -8945,10 +8909,10 @@
     </row>
     <row r="7" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5" t="s">
@@ -8956,7 +8920,7 @@
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="6" t="s">
-        <v>674</v>
+        <v>660</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -8981,10 +8945,10 @@
     </row>
     <row r="8" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5" t="s">
@@ -8992,7 +8956,7 @@
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="6" t="s">
-        <v>675</v>
+        <v>661</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -9017,10 +8981,10 @@
     </row>
     <row r="9" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>781</v>
+        <v>767</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="5" t="s">
@@ -9028,15 +8992,15 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="11" t="s">
-        <v>676</v>
+        <v>662</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="5" t="s">
@@ -9044,7 +9008,7 @@
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="10" t="s">
-        <v>677</v>
+        <v>663</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -9069,10 +9033,10 @@
     </row>
     <row r="11" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="5" t="s">
@@ -9080,15 +9044,15 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="11" t="s">
-        <v>678</v>
+        <v>664</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>782</v>
+        <v>768</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="5" t="s">
@@ -9096,15 +9060,15 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="11" t="s">
-        <v>679</v>
+        <v>665</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>783</v>
+        <v>769</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="5" t="s">
@@ -9112,15 +9076,15 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="11" t="s">
-        <v>680</v>
+        <v>666</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>681</v>
+        <v>667</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>792</v>
+        <v>778</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="5" t="s">
@@ -9128,15 +9092,15 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="11" t="s">
-        <v>680</v>
+        <v>666</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>784</v>
+        <v>770</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="5" t="s">
@@ -9144,15 +9108,15 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="30" t="s">
-        <v>682</v>
+        <v>668</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>793</v>
+        <v>779</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="5" t="s">
@@ -9160,15 +9124,15 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="11" t="s">
-        <v>683</v>
+        <v>669</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>785</v>
+        <v>771</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="5" t="s">
@@ -9176,15 +9140,15 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="11" t="s">
-        <v>680</v>
+        <v>666</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>786</v>
+        <v>772</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="5" t="s">
@@ -9192,15 +9156,15 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="11" t="s">
-        <v>680</v>
+        <v>666</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>787</v>
+        <v>773</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="5" t="s">
@@ -9208,15 +9172,15 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="10" t="s">
-        <v>684</v>
+        <v>670</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>788</v>
+        <v>774</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="5" t="s">
@@ -9224,15 +9188,15 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="30" t="s">
-        <v>682</v>
+        <v>668</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>789</v>
+        <v>775</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="5" t="s">
@@ -9240,15 +9204,15 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="30" t="s">
-        <v>685</v>
+        <v>671</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>791</v>
+        <v>777</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="5" t="s">
@@ -9256,28 +9220,28 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="30" t="s">
-        <v>686</v>
+        <v>672</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>795</v>
+        <v>781</v>
       </c>
       <c r="B23" t="s">
-        <v>794</v>
+        <v>780</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>796</v>
+        <v>782</v>
       </c>
       <c r="B24" t="s">
-        <v>790</v>
+        <v>776</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>792</v>
+        <v>778</v>
       </c>
     </row>
   </sheetData>
@@ -9315,22 +9279,22 @@
   <sheetData>
     <row r="1" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>687</v>
+        <v>673</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>688</v>
+        <v>674</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>689</v>
+        <v>675</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>690</v>
+        <v>676</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>691</v>
+        <v>677</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>692</v>
+        <v>678</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
@@ -9338,168 +9302,168 @@
         <v>44</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>693</v>
+        <v>679</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>694</v>
+        <v>680</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="38" t="s">
-        <v>695</v>
+        <v>681</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>696</v>
+        <v>682</v>
       </c>
       <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:25" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>697</v>
+        <v>683</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>698</v>
+        <v>684</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="30" t="s">
-        <v>699</v>
+        <v>685</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>700</v>
+        <v>686</v>
       </c>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>701</v>
+        <v>687</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>702</v>
+        <v>688</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="30" t="s">
-        <v>703</v>
+        <v>689</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>704</v>
+        <v>690</v>
       </c>
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>705</v>
+        <v>691</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>706</v>
+        <v>692</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="30" t="s">
-        <v>707</v>
+        <v>693</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>708</v>
+        <v>694</v>
       </c>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>709</v>
+        <v>695</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>710</v>
+        <v>696</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="30" t="s">
-        <v>711</v>
+        <v>697</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>712</v>
+        <v>698</v>
       </c>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>713</v>
+        <v>699</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>714</v>
+        <v>700</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="30" t="s">
-        <v>715</v>
+        <v>701</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>716</v>
+        <v>702</v>
       </c>
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>717</v>
+        <v>703</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>718</v>
+        <v>704</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="30" t="s">
-        <v>719</v>
+        <v>705</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>720</v>
+        <v>706</v>
       </c>
       <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>721</v>
+        <v>707</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="30" t="s">
-        <v>723</v>
+        <v>709</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>724</v>
+        <v>710</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>725</v>
+        <v>711</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>726</v>
+        <v>712</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="7" t="s">
-        <v>727</v>
+        <v>713</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>728</v>
+        <v>714</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="7"/>
@@ -9523,210 +9487,210 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>729</v>
+        <v>715</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>730</v>
+        <v>716</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="30" t="s">
-        <v>731</v>
+        <v>717</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>732</v>
+        <v>718</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>733</v>
+        <v>719</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>734</v>
+        <v>720</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="30" t="s">
-        <v>735</v>
+        <v>721</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>736</v>
+        <v>722</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>737</v>
+        <v>723</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>738</v>
+        <v>724</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="30" t="s">
-        <v>739</v>
+        <v>725</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>740</v>
+        <v>726</v>
       </c>
       <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>681</v>
+        <v>667</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>741</v>
+        <v>727</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>742</v>
+        <v>728</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="30" t="s">
-        <v>743</v>
+        <v>729</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>744</v>
+        <v>730</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>745</v>
+        <v>731</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>746</v>
+        <v>732</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="30" t="s">
-        <v>747</v>
+        <v>733</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>748</v>
+        <v>734</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>749</v>
+        <v>735</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>750</v>
+        <v>736</v>
       </c>
       <c r="F16" s="32" t="s">
-        <v>751</v>
+        <v>737</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>752</v>
+        <v>738</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>753</v>
+        <v>739</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>754</v>
+        <v>740</v>
       </c>
       <c r="F17" s="32" t="s">
-        <v>755</v>
+        <v>741</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>756</v>
+        <v>742</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>757</v>
+        <v>743</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>758</v>
+        <v>744</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>759</v>
+        <v>745</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>760</v>
+        <v>746</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>761</v>
+        <v>747</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>762</v>
+        <v>748</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>763</v>
+        <v>749</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>764</v>
+        <v>750</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>765</v>
+        <v>751</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>766</v>
+        <v>752</v>
       </c>
       <c r="F20" s="32" t="s">
-        <v>767</v>
+        <v>753</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>768</v>
+        <v>754</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>769</v>
+        <v>755</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
       <c r="F21" s="32" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="G21" s="30"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="30" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>772</v>
+        <v>758</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>773</v>
+        <v>759</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>774</v>
+        <v>760</v>
       </c>
       <c r="F22" s="32" t="s">
-        <v>775</v>
+        <v>761</v>
       </c>
       <c r="G22" s="30"/>
     </row>
@@ -9759,17 +9723,17 @@
   <sheetData>
     <row r="1" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
-        <v>776</v>
+        <v>762</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -9779,42 +9743,42 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>797</v>
+        <v>783</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>798</v>
+        <v>784</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -9850,10 +9814,10 @@
   <sheetData>
     <row r="1" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>777</v>
+        <v>763</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>778</v>
+        <v>764</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -10867,10 +10831,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
-        <v>779</v>
+        <v>765</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>780</v>
+        <v>766</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11885,8 +11849,8 @@
   </sheetPr>
   <dimension ref="A1:Z1048575"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J52" sqref="J52"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12014,13 +11978,13 @@
         <v>33</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>832</v>
+        <v>818</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>35</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>833</v>
+        <v>819</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>36</v>
@@ -12057,40 +12021,40 @@
         <v>45</v>
       </c>
       <c r="W2" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="X2" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="X2" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="Y2" s="4"/>
       <c r="Z2" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>51</v>
-      </c>
       <c r="D3" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>56</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>36</v>
@@ -12099,70 +12063,70 @@
         <v>37</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="N3" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>59</v>
       </c>
       <c r="O3" s="4"/>
       <c r="P3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q3" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="R3" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="S3" s="4"/>
       <c r="T3" s="5" t="s">
         <v>43</v>
       </c>
       <c r="U3" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="V3" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="V3" s="5" t="s">
+      <c r="W3" s="6" t="s">
+        <v>821</v>
+      </c>
+      <c r="X3" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="W3" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="X3" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="Y3" s="4"/>
       <c r="Z3" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="H4" s="8" t="s">
         <v>73</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>75</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>36</v>
@@ -12171,19 +12135,19 @@
         <v>37</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N4" s="4"/>
       <c r="O4" s="7"/>
       <c r="P4" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="R4" s="7"/>
       <c r="S4" s="5"/>
@@ -12191,44 +12155,44 @@
         <v>43</v>
       </c>
       <c r="U4" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="V4" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W4" s="7"/>
       <c r="X4" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Y4" s="4"/>
       <c r="Z4" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>84</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>86</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>44</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>35</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>36</v>
@@ -12240,20 +12204,20 @@
         <v>38</v>
       </c>
       <c r="L5" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="N5" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>92</v>
       </c>
       <c r="O5" s="7"/>
       <c r="P5" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="R5" s="5" t="s">
         <v>42</v>
@@ -12269,31 +12233,31 @@
         <v>45</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>95</v>
+        <v>822</v>
       </c>
       <c r="X5" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Y5" s="4"/>
       <c r="Z5" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>44</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>34</v>
@@ -12302,7 +12266,7 @@
         <v>35</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>804</v>
+        <v>790</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>36</v>
@@ -12314,20 +12278,20 @@
         <v>38</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O6" s="4"/>
       <c r="P6" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="R6" s="5" t="s">
         <v>42</v>
@@ -12343,31 +12307,31 @@
         <v>45</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>105</v>
+        <v>823</v>
       </c>
       <c r="X6" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Y6" s="4"/>
       <c r="Z6" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>44</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>34</v>
@@ -12376,7 +12340,7 @@
         <v>35</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>804</v>
+        <v>790</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>36</v>
@@ -12388,20 +12352,20 @@
         <v>38</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="O7" s="4"/>
       <c r="P7" s="6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R7" s="5" t="s">
         <v>42</v>
@@ -12417,31 +12381,31 @@
         <v>45</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>114</v>
+        <v>822</v>
       </c>
       <c r="X7" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Y7" s="4"/>
       <c r="Z7" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>44</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>34</v>
@@ -12450,7 +12414,7 @@
         <v>35</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>804</v>
+        <v>790</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>36</v>
@@ -12462,20 +12426,20 @@
         <v>38</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O8" s="4"/>
       <c r="P8" s="6" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="R8" s="5" t="s">
         <v>42</v>
@@ -12491,40 +12455,40 @@
         <v>45</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>123</v>
+        <v>824</v>
       </c>
       <c r="X8" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Y8" s="4"/>
       <c r="Z8" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="H9" s="13" t="s">
         <v>125</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>131</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>36</v>
@@ -12537,15 +12501,15 @@
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="6" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="5" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="R9" s="5" t="s">
         <v>42</v>
@@ -12555,46 +12519,46 @@
         <v>43</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="V9" s="5" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="W9" s="5" t="s">
-        <v>137</v>
+        <v>825</v>
       </c>
       <c r="X9" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Y9" s="4"/>
       <c r="Z9" s="6" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>142</v>
-      </c>
       <c r="F10" s="7" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>803</v>
+        <v>789</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>36</v>
@@ -12603,72 +12567,72 @@
         <v>37</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="O10" s="4"/>
       <c r="P10" s="5" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R10" s="7" t="s">
         <v>42</v>
       </c>
       <c r="S10" s="7"/>
       <c r="T10" s="5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="V10" s="5" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="W10" s="5" t="s">
-        <v>105</v>
+        <v>823</v>
       </c>
       <c r="X10" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Y10" s="4"/>
       <c r="Z10" s="6" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>35</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>805</v>
+        <v>791</v>
       </c>
       <c r="I11" s="7" t="s">
         <v>36</v>
@@ -12677,70 +12641,70 @@
         <v>37</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7"/>
       <c r="M11" s="6" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="O11" s="4"/>
       <c r="P11" s="5" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R11" s="5" t="s">
         <v>42</v>
       </c>
       <c r="S11" s="7"/>
       <c r="T11" s="5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="V11" s="5" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="W11" s="5" t="s">
-        <v>161</v>
+        <v>826</v>
       </c>
       <c r="X11" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Y11" s="4"/>
       <c r="Z11" s="6" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>35</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>805</v>
+        <v>791</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>36</v>
@@ -12749,70 +12713,70 @@
         <v>37</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="5" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="O12" s="4"/>
       <c r="P12" s="5" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="R12" s="5" t="s">
         <v>42</v>
       </c>
       <c r="S12" s="7"/>
       <c r="T12" s="5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="U12" s="4" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="V12" s="5" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="W12" s="5" t="s">
-        <v>114</v>
+        <v>822</v>
       </c>
       <c r="X12" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Y12" s="4"/>
       <c r="Z12" s="6" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>35</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>36</v>
@@ -12821,70 +12785,70 @@
         <v>37</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="L13" s="7"/>
       <c r="M13" s="7" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="O13" s="4"/>
       <c r="P13" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="R13" s="5" t="s">
         <v>42</v>
       </c>
       <c r="S13" s="7"/>
       <c r="T13" s="5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="V13" s="5" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="W13" s="5" t="s">
-        <v>114</v>
+        <v>822</v>
       </c>
       <c r="X13" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Y13" s="4"/>
       <c r="Z13" s="6" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>36</v>
@@ -12893,72 +12857,72 @@
         <v>37</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="L14" s="7"/>
       <c r="M14" s="5" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="R14" s="7" t="s">
         <v>42</v>
       </c>
       <c r="S14" s="7"/>
       <c r="T14" s="5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="U14" s="6" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="V14" s="5" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="W14" s="5" t="s">
-        <v>114</v>
+        <v>822</v>
       </c>
       <c r="X14" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Y14" s="4"/>
       <c r="Z14" s="5" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>801</v>
+        <v>787</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>36</v>
@@ -12967,70 +12931,70 @@
         <v>37</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L15" s="7"/>
       <c r="M15" s="5" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="N15" s="4"/>
       <c r="O15" s="6" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="R15" s="7" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="S15" s="7"/>
       <c r="T15" s="5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="U15" s="4" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="V15" s="5" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="W15" s="5" t="s">
-        <v>211</v>
+        <v>822</v>
       </c>
       <c r="X15" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Y15" s="4"/>
       <c r="Z15" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>800</v>
+        <v>786</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>36</v>
@@ -13039,70 +13003,70 @@
         <v>37</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L16" s="7"/>
       <c r="M16" s="15" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="N16" s="4"/>
       <c r="O16" s="6" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="R16" s="7" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="S16" s="7"/>
       <c r="T16" s="5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="U16" s="4" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="V16" s="5" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="W16" s="5" t="s">
-        <v>223</v>
+        <v>822</v>
       </c>
       <c r="X16" s="15" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="Y16" s="4"/>
       <c r="Z16" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>236</v>
-      </c>
       <c r="E17" s="5" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>36</v>
@@ -13111,70 +13075,70 @@
         <v>37</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="L17" s="7"/>
       <c r="M17" s="5" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="O17" s="4"/>
       <c r="P17" s="5" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="R17" s="7" t="s">
         <v>42</v>
       </c>
       <c r="S17" s="7"/>
       <c r="T17" s="5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="U17" s="4" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="V17" s="5" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="W17" s="5" t="s">
-        <v>238</v>
+        <v>827</v>
       </c>
       <c r="X17" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Y17" s="4"/>
       <c r="Z17" s="5" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>36</v>
@@ -13183,70 +13147,70 @@
         <v>37</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="L18" s="7"/>
       <c r="M18" s="5" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="O18" s="4"/>
       <c r="P18" s="5" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="R18" s="7" t="s">
         <v>42</v>
       </c>
       <c r="S18" s="7"/>
       <c r="T18" s="5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="U18" s="4" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="V18" s="5" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="W18" s="5" t="s">
-        <v>246</v>
+        <v>821</v>
       </c>
       <c r="X18" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Y18" s="4"/>
       <c r="Z18" s="5" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="C19" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>261</v>
-      </c>
       <c r="E19" s="5" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>36</v>
@@ -13255,70 +13219,70 @@
         <v>37</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="L19" s="7"/>
       <c r="M19" s="5" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="R19" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S19" s="7"/>
       <c r="T19" s="5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="U19" s="4" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="V19" s="5" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="W19" s="5" t="s">
-        <v>263</v>
+        <v>820</v>
       </c>
       <c r="X19" s="7"/>
       <c r="Y19" s="4"/>
       <c r="Z19" s="5" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>36</v>
@@ -13327,379 +13291,379 @@
         <v>37</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="L20" s="7"/>
       <c r="M20" s="5" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="O20" s="4"/>
       <c r="P20" s="5" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="R20" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S20" s="7"/>
       <c r="T20" s="5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="U20" s="4" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="V20" s="5" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="W20" s="5" t="s">
-        <v>272</v>
+        <v>822</v>
       </c>
       <c r="X20" s="5" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="Y20" s="4"/>
       <c r="Z20" s="5" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>36</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="5" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="L21" s="7"/>
       <c r="M21" s="15" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="N21" s="5"/>
       <c r="O21" s="6" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="R21" s="7" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="S21" s="7"/>
       <c r="T21" s="5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="U21" s="4" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="V21" s="5" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="W21" s="7"/>
       <c r="X21" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Y21" s="4"/>
       <c r="Z21" s="7"/>
     </row>
     <row r="22" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>36</v>
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="5" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="L22" s="7"/>
       <c r="M22" s="15" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="N22" s="16"/>
       <c r="O22" s="6" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="Q22" s="5" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="R22" s="7"/>
       <c r="S22" s="7"/>
       <c r="T22" s="5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="U22" s="17" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="V22" s="5" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="W22" s="5"/>
       <c r="X22" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Y22" s="4"/>
       <c r="Z22" s="7"/>
     </row>
     <row r="23" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>806</v>
+        <v>792</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>36</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="5" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="T23" s="5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="U23" s="5" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="V23" s="5" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="X23" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Y23" s="2"/>
     </row>
     <row r="24" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>35</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="I24" s="5" t="s">
         <v>36</v>
       </c>
       <c r="J24" s="4"/>
       <c r="K24" s="7" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
       <c r="N24" s="6" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="Q24" s="5" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="R24" s="7" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="S24" s="7"/>
       <c r="T24" s="5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="U24" s="4" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="V24" s="5" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="W24" s="7"/>
       <c r="X24" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Y24" s="4"/>
       <c r="Z24" s="7"/>
     </row>
     <row r="25" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>35</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="I25" s="7" t="s">
         <v>36</v>
       </c>
       <c r="J25" s="4"/>
       <c r="K25" s="7" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
       <c r="N25" s="4" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="O25" s="4"/>
       <c r="P25" s="7" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="R25" s="7" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="S25" s="7"/>
       <c r="T25" s="5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="U25" s="4" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="V25" s="5" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="W25" s="7"/>
       <c r="X25" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Y25" s="4"/>
       <c r="Z25" s="7"/>
     </row>
     <row r="26" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="4" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="H26" s="19" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="I26" s="7" t="s">
         <v>36</v>
@@ -13708,63 +13672,63 @@
         <v>37</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="N26" s="4"/>
       <c r="O26" s="2"/>
       <c r="P26" s="5" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="Q26" s="5" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="R26" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T26" s="5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="U26" s="4" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="V26" s="5" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="X26" s="5" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="Y26" s="2"/>
       <c r="Z26" s="5" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="I27" s="7" t="s">
         <v>36</v>
@@ -13773,62 +13737,62 @@
         <v>37</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="5" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="Q27" s="5" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="R27" s="7" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="T27" s="5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="U27" s="4" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="V27" s="5" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="X27" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Y27" s="2"/>
     </row>
     <row r="28" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="I28" s="7" t="s">
         <v>36</v>
@@ -13837,65 +13801,65 @@
         <v>37</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="5" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="R28" s="7" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="T28" s="5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="U28" s="4" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="V28" s="5" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="X28" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Y28" s="2"/>
       <c r="Z28" s="5" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>35</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="I29" s="7" t="s">
         <v>36</v>
@@ -13904,60 +13868,60 @@
         <v>37</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
       <c r="N29" s="4" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="O29" s="4"/>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
       <c r="R29" s="7" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="S29" s="7"/>
       <c r="T29" s="5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="U29" s="4" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="V29" s="5" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="W29" s="7"/>
       <c r="X29" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Y29" s="4"/>
       <c r="Z29" s="7"/>
     </row>
     <row r="30" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>35</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="I30" s="7" t="s">
         <v>36</v>
@@ -13972,50 +13936,50 @@
       <c r="O30" s="4"/>
       <c r="P30" s="7"/>
       <c r="Q30" s="5" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="R30" s="7"/>
       <c r="S30" s="7"/>
       <c r="T30" s="5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="U30" s="4" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="V30" s="5" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="W30" s="7"/>
       <c r="X30" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Y30" s="4"/>
       <c r="Z30" s="7"/>
     </row>
     <row r="31" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>807</v>
+        <v>793</v>
       </c>
       <c r="I31" s="7" t="s">
         <v>36</v>
@@ -14024,56 +13988,56 @@
         <v>37</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="7" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="R31" s="7" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="T31" s="5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="U31" s="7" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="V31" s="5" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="X31" s="5" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="Y31" s="2"/>
     </row>
     <row r="32" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>35</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="I32" s="7" t="s">
         <v>36</v>
@@ -14082,64 +14046,64 @@
         <v>37</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
       <c r="N32" s="6" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="O32" s="4"/>
       <c r="P32" s="5" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="Q32" s="5" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="R32" s="7" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="S32" s="7"/>
       <c r="T32" s="5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="U32" s="4" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="V32" s="5" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="W32" s="7"/>
       <c r="X32" s="5" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="Y32" s="4"/>
       <c r="Z32" s="7"/>
     </row>
     <row r="33" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>36</v>
@@ -14148,64 +14112,64 @@
         <v>37</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="M33" s="7"/>
       <c r="N33" s="4" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="O33" s="4"/>
       <c r="P33" s="7"/>
       <c r="Q33" s="5" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="R33" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S33" s="7"/>
       <c r="T33" s="5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="U33" s="4" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="V33" s="5" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="W33" s="7"/>
       <c r="X33" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Y33" s="4"/>
       <c r="Z33" s="7"/>
     </row>
     <row r="34" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>808</v>
+        <v>794</v>
       </c>
       <c r="I34" s="5" t="s">
         <v>36</v>
@@ -14214,57 +14178,57 @@
         <v>37</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="M34" s="5" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" s="7" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="Q34" s="5" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="R34" s="7" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="T34" s="5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="U34" s="4" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="V34" s="5" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="Y34" s="2"/>
     </row>
     <row r="35" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>799</v>
+        <v>785</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>36</v>
@@ -14273,57 +14237,57 @@
         <v>37</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="M35" s="5" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="5" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="Q35" s="5" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="R35" s="7" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="T35" s="5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="U35" s="4" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="V35" s="5" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="Y35" s="2"/>
     </row>
     <row r="36" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="H36" s="14" t="s">
-        <v>799</v>
+        <v>785</v>
       </c>
       <c r="I36" s="5" t="s">
         <v>36</v>
@@ -14332,57 +14296,57 @@
         <v>37</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="M36" s="5" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" s="7" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="R36" s="7" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="T36" s="5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="U36" s="4" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="V36" s="5" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="Y36" s="2"/>
     </row>
     <row r="37" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="H37" s="14" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="I37" s="7" t="s">
         <v>36</v>
@@ -14391,68 +14355,68 @@
         <v>37</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="M37" s="5" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="N37" s="4" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" s="5" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="Q37" s="5" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="R37" s="7" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="T37" s="5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="U37" s="4" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="V37" s="5" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="X37" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Y37" s="2"/>
       <c r="Z37" s="5" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
     </row>
     <row r="38" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>806</v>
+        <v>792</v>
       </c>
       <c r="I38" s="7" t="s">
         <v>36</v>
@@ -14461,66 +14425,66 @@
         <v>37</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="L38" s="7"/>
       <c r="M38" s="7"/>
       <c r="N38" s="4" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="O38" s="4"/>
       <c r="P38" s="7" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="Q38" s="5" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="R38" s="7" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="S38" s="7"/>
       <c r="T38" s="5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="U38" s="4" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="V38" s="5" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="W38" s="7" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="X38" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Y38" s="4"/>
       <c r="Z38" s="7"/>
     </row>
     <row r="39" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="H39" s="14" t="s">
-        <v>809</v>
+        <v>795</v>
       </c>
       <c r="I39" s="7" t="s">
         <v>36</v>
@@ -14529,64 +14493,64 @@
         <v>37</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="L39" s="7"/>
       <c r="M39" s="7"/>
       <c r="N39" s="4"/>
       <c r="O39" s="6" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="Q39" s="5" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="R39" s="7"/>
       <c r="S39" s="7"/>
       <c r="T39" s="5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="U39" s="4" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="V39" s="5" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="W39" s="7" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="X39" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Y39" s="4"/>
       <c r="Z39" s="7"/>
     </row>
     <row r="40" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="H40" s="14" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="I40" s="7" t="s">
         <v>36</v>
@@ -14595,56 +14559,56 @@
         <v>37</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" s="7" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="R40" s="7" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="T40" s="5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="U40" s="7" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="V40" s="5" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="X40" s="5" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="Y40" s="2"/>
     </row>
     <row r="41" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="F41" s="20" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="G41" s="22" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="H41" s="23" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="I41" s="20" t="s">
         <v>36</v>
@@ -14653,64 +14617,64 @@
         <v>37</v>
       </c>
       <c r="K41" s="21" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="L41" s="21" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="M41" s="21"/>
       <c r="N41" s="24"/>
       <c r="O41" s="24"/>
       <c r="P41" s="21" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="Q41" s="21" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="R41" s="20" t="s">
         <v>42</v>
       </c>
       <c r="S41" s="20"/>
       <c r="T41" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="U41" s="24" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="V41" s="21" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="W41" s="21"/>
       <c r="X41" s="24"/>
       <c r="Y41" s="20"/>
       <c r="Z41" s="21" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="42" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="I42" s="20" t="s">
         <v>36</v>
@@ -14719,62 +14683,62 @@
         <v>37</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L42" s="7"/>
       <c r="M42" s="5" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
       <c r="P42" s="7" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="Q42" s="5" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="R42" s="7"/>
       <c r="S42" s="7"/>
       <c r="T42" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="U42" s="4" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="V42" s="21" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="W42" s="7" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="X42" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Y42" s="4"/>
       <c r="Z42" s="7"/>
     </row>
     <row r="43" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>495</v>
+        <v>481</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="F43" s="25"/>
       <c r="G43" s="4" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>802</v>
+        <v>788</v>
       </c>
       <c r="I43" s="7" t="s">
         <v>36</v>
@@ -14783,60 +14747,60 @@
         <v>37</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="L43" s="7"/>
       <c r="M43" s="5" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
       <c r="R43" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S43" s="7"/>
       <c r="T43" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="U43" s="4" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="V43" s="5" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="W43" s="7" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="X43" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Y43" s="4"/>
       <c r="Z43" s="7"/>
     </row>
     <row r="44" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="F44" s="25"/>
       <c r="G44" s="4" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>802</v>
+        <v>788</v>
       </c>
       <c r="I44" s="7" t="s">
         <v>36</v>
@@ -14845,60 +14809,60 @@
         <v>37</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="L44" s="7"/>
       <c r="M44" s="5" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="N44" s="4"/>
       <c r="O44" s="4"/>
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
       <c r="R44" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S44" s="7"/>
       <c r="T44" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="U44" s="4" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="V44" s="5" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="W44" s="7" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="X44" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Y44" s="4"/>
       <c r="Z44" s="7"/>
     </row>
     <row r="45" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="F45" s="25"/>
       <c r="G45" s="4" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>802</v>
+        <v>788</v>
       </c>
       <c r="I45" s="7" t="s">
         <v>36</v>
@@ -14907,60 +14871,60 @@
         <v>37</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="L45" s="7"/>
       <c r="M45" s="5" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
       <c r="R45" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S45" s="7"/>
       <c r="T45" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="U45" s="4" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="V45" s="5" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="W45" s="7" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="X45" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Y45" s="4"/>
       <c r="Z45" s="7"/>
     </row>
     <row r="46" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="F46" s="26"/>
       <c r="G46" s="4" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="I46" s="7" t="s">
         <v>36</v>
@@ -14969,57 +14933,57 @@
         <v>37</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="M46" s="5" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="N46" s="4"/>
       <c r="O46" s="2"/>
       <c r="R46" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T46" s="21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="U46" s="4" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="V46" s="5" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="W46" s="7" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="X46" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Y46" s="2"/>
     </row>
     <row r="47" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="H47" s="14" t="s">
-        <v>806</v>
+        <v>792</v>
       </c>
       <c r="I47" s="5" t="s">
         <v>36</v>
@@ -15028,61 +14992,61 @@
         <v>37</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>517</v>
+        <v>503</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="N47" s="4"/>
       <c r="O47" s="4" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
       <c r="R47" s="7"/>
       <c r="S47" s="7"/>
       <c r="T47" s="5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="U47" s="5" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="V47" s="5" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
       <c r="X47" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Y47" s="4"/>
       <c r="Z47" s="7"/>
     </row>
     <row r="48" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>795</v>
+        <v>781</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="G48" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H48" s="14" t="s">
         <v>55</v>
-      </c>
-      <c r="H48" s="14" t="s">
-        <v>56</v>
       </c>
       <c r="I48" s="5" t="s">
         <v>36</v>
@@ -15091,57 +15055,57 @@
         <v>37</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="21" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="P48" s="21"/>
       <c r="Q48" s="21" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="R48" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T48" s="5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="U48" s="5" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="V48" s="5" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="W48" s="7" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="X48" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Y48" s="2"/>
     </row>
     <row r="49" spans="1:26" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>796</v>
+        <v>782</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="H49" s="14" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
       <c r="I49" s="5" t="s">
         <v>36</v>
@@ -15150,52 +15114,52 @@
         <v>37</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="R49" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T49" s="5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="U49" s="5" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
       <c r="V49" s="5" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="W49" s="7" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="X49" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Y49" s="2"/>
     </row>
     <row r="50" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="F50" s="7"/>
       <c r="G50" s="4" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="I50" s="7" t="s">
         <v>36</v>
@@ -15204,59 +15168,59 @@
         <v>37</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="L50" s="7"/>
       <c r="M50" s="6" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
       <c r="P50" s="7"/>
       <c r="Q50" s="7"/>
       <c r="R50" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S50" s="7"/>
       <c r="T50" s="5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="U50" s="7" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="V50" s="5" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="W50" s="7" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="X50" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Y50" s="4"/>
       <c r="Z50" s="7"/>
     </row>
     <row r="51" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="I51" s="7" t="s">
         <v>36</v>
@@ -15265,54 +15229,54 @@
         <v>37</v>
       </c>
       <c r="M51" s="6" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="R51" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T51" s="5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="U51" s="7" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="V51" s="5" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="W51" s="7" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="X51" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Y51" s="4"/>
     </row>
     <row r="52" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E52" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F52" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F52" s="4" t="s">
+      <c r="G52" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G52" s="4" t="s">
+      <c r="H52" s="13" t="s">
         <v>55</v>
-      </c>
-      <c r="H52" s="13" t="s">
-        <v>56</v>
       </c>
       <c r="I52" s="7" t="s">
         <v>36</v>
@@ -15321,40 +15285,40 @@
         <v>37</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L52" s="7"/>
       <c r="M52" s="6" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="N52" s="4"/>
       <c r="O52" s="4"/>
       <c r="P52" s="7"/>
       <c r="Q52" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R52" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="R52" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="S52" s="7"/>
       <c r="T52" s="5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="U52" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V52" s="5" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="W52" s="7" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="X52" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Y52" s="4"/>
       <c r="Z52" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="1048551" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15416,7 +15380,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -15428,268 +15392,268 @@
         <v>10</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="10"/>
       <c r="D2" s="11" t="s">
-        <v>810</v>
+        <v>796</v>
       </c>
       <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="10" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>570</v>
+        <v>556</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>573</v>
+        <v>559</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="2"/>
       <c r="D8" s="10" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>580</v>
+        <v>566</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="2"/>
       <c r="D9" s="10" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>582</v>
+        <v>568</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="2"/>
       <c r="D10" s="10" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>583</v>
+        <v>569</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>584</v>
+        <v>570</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>586</v>
+        <v>572</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>587</v>
+        <v>573</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>588</v>
+        <v>574</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="2"/>
       <c r="D14" s="10" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="2"/>
       <c r="D15" s="10" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>590</v>
+        <v>576</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>592</v>
+        <v>578</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>573</v>
+        <v>559</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
       <c r="B19" s="10"/>
       <c r="D19" s="10" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="B20" s="10"/>
       <c r="D20" s="10" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="B21" s="10"/>
       <c r="D21" s="10" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="30" t="s">
-        <v>603</v>
+        <v>589</v>
       </c>
       <c r="B22" s="10"/>
       <c r="D22" s="10" t="s">
-        <v>604</v>
+        <v>590</v>
       </c>
     </row>
     <row r="1048573" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15728,7 +15692,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>605</v>
+        <v>591</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -15740,7 +15704,7 @@
         <v>10</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -15766,16 +15730,16 @@
     </row>
     <row r="2" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>606</v>
+        <v>592</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>607</v>
+        <v>593</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>608</v>
+        <v>594</v>
       </c>
       <c r="E2" s="28"/>
       <c r="F2" s="2"/>
@@ -15802,12 +15766,12 @@
     </row>
     <row r="3" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>609</v>
+        <v>595</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="2"/>
       <c r="D3" s="10" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -15834,16 +15798,16 @@
     </row>
     <row r="4" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -15870,16 +15834,16 @@
     </row>
     <row r="5" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -15906,12 +15870,12 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="2"/>
       <c r="D6" s="10" t="s">
-        <v>615</v>
+        <v>601</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -15938,12 +15902,12 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>616</v>
+        <v>602</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="2"/>
       <c r="D7" s="10" t="s">
-        <v>617</v>
+        <v>603</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -15970,16 +15934,16 @@
     </row>
     <row r="8" spans="1:26" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>618</v>
+        <v>604</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>619</v>
+        <v>605</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>620</v>
+        <v>606</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>621</v>
+        <v>607</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -16006,16 +15970,16 @@
     </row>
     <row r="9" spans="1:26" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>619</v>
+        <v>605</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>621</v>
+        <v>607</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -16042,12 +16006,12 @@
     </row>
     <row r="10" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>623</v>
+        <v>609</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="2"/>
       <c r="D10" s="10" t="s">
-        <v>624</v>
+        <v>610</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -16074,12 +16038,12 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="2"/>
       <c r="D11" s="10" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -16106,12 +16070,12 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>627</v>
+        <v>613</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="2"/>
       <c r="D12" s="10" t="s">
-        <v>628</v>
+        <v>614</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -16138,12 +16102,12 @@
     </row>
     <row r="13" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>629</v>
+        <v>615</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="2"/>
       <c r="D13" s="10" t="s">
-        <v>630</v>
+        <v>616</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -16170,14 +16134,14 @@
     </row>
     <row r="14" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>631</v>
+        <v>617</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="11" t="s">
-        <v>632</v>
+        <v>618</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>633</v>
+        <v>619</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -16204,12 +16168,12 @@
     </row>
     <row r="15" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="2"/>
       <c r="D15" s="10" t="s">
-        <v>634</v>
+        <v>620</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -16236,12 +16200,12 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>635</v>
+        <v>621</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="2"/>
       <c r="D16" s="10" t="s">
-        <v>636</v>
+        <v>622</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -16268,12 +16232,12 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>637</v>
+        <v>623</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="2"/>
       <c r="D17" s="10" t="s">
-        <v>638</v>
+        <v>624</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -16300,12 +16264,12 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>639</v>
+        <v>625</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="2"/>
       <c r="D18" s="10" t="s">
-        <v>640</v>
+        <v>626</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -17342,13 +17306,13 @@
   <sheetData>
     <row r="1" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>641</v>
+        <v>627</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>642</v>
+        <v>628</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -18406,7 +18370,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>643</v>
+        <v>629</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>10</v>
@@ -18437,190 +18401,190 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>811</v>
+        <v>797</v>
       </c>
       <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>812</v>
+        <v>798</v>
       </c>
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
-        <v>813</v>
+        <v>799</v>
       </c>
       <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s">
-        <v>814</v>
+        <v>800</v>
       </c>
       <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B6" t="s">
-        <v>815</v>
+        <v>801</v>
       </c>
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B7" t="s">
-        <v>816</v>
+        <v>802</v>
       </c>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B8" t="s">
-        <v>817</v>
+        <v>803</v>
       </c>
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B9" t="s">
-        <v>818</v>
+        <v>804</v>
       </c>
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B10" t="s">
-        <v>819</v>
+        <v>805</v>
       </c>
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B11" t="s">
-        <v>820</v>
+        <v>806</v>
       </c>
       <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="B12" t="s">
-        <v>822</v>
+        <v>808</v>
       </c>
       <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="B13" t="s">
-        <v>821</v>
+        <v>807</v>
       </c>
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>823</v>
+        <v>809</v>
       </c>
       <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>824</v>
+        <v>810</v>
       </c>
       <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>825</v>
+        <v>811</v>
       </c>
       <c r="D16" s="12"/>
     </row>
     <row r="17" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="B17" t="s">
-        <v>826</v>
+        <v>812</v>
       </c>
       <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="B18" t="s">
-        <v>827</v>
+        <v>813</v>
       </c>
       <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="B19" t="s">
-        <v>828</v>
+        <v>814</v>
       </c>
       <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="B20" t="s">
-        <v>829</v>
+        <v>815</v>
       </c>
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="B21" t="s">
-        <v>830</v>
+        <v>816</v>
       </c>
       <c r="D21" s="4"/>
     </row>
     <row r="22" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="B22" t="s">
-        <v>831</v>
+        <v>817</v>
       </c>
       <c r="D22" s="4"/>
     </row>
@@ -19631,7 +19595,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>644</v>
+        <v>630</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -19643,7 +19607,7 @@
         <v>10</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>645</v>
+        <v>631</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>11</v>
@@ -20661,22 +20625,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>646</v>
+        <v>632</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>647</v>
+        <v>633</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>648</v>
+        <v>634</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>649</v>
+        <v>635</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>650</v>
+        <v>636</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -21685,10 +21649,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>651</v>
+        <v>637</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>652</v>
+        <v>638</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>10</v>
@@ -21697,10 +21661,10 @@
         <v>18</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>653</v>
+        <v>639</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>654</v>
+        <v>640</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/source-data/dataTrento/dataTrento.xlsx
+++ b/source-data/dataTrento/dataTrento.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\servaism\Documents\1-Clients\CPSV-AP\Trento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\servaism\git\Trento_conversionToRDF\source-data\dataTrento\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="6765" firstSheet="4" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="6765" firstSheet="6" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Public Service" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="340">
   <si>
     <t>Name</t>
   </si>
@@ -1099,6 +1099,30 @@
   </si>
   <si>
     <t>Per la federazione trentina delle associazioni proloco e consorzi: domanda di contributo con relazione illustrativa dell’attività e piano finanziario</t>
+  </si>
+  <si>
+    <t>Provincia Autonoma di Trento - Servizio attività culturali</t>
+  </si>
+  <si>
+    <t>via Romagnosi 5 - 38122 Trento</t>
+  </si>
+  <si>
+    <t>Provincia Autonoma di Trento - Servizio agricoltura</t>
+  </si>
+  <si>
+    <t>via Trener 3 - 38122 Trento</t>
+  </si>
+  <si>
+    <t>Provincia Autonoma di Trento - Agenzia provinciale per la protezione dell'ambiente</t>
+  </si>
+  <si>
+    <t>piazza Vittoria 5 - 38122 Trento</t>
+  </si>
+  <si>
+    <t>Provincia Autonoma di Trento - Servizio turismo e sport</t>
+  </si>
+  <si>
+    <t>via Romagnosi 9 - 38122 Trento</t>
   </si>
 </sst>
 </file>
@@ -1236,7 +1260,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1322,6 +1346,24 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1717,8 +1759,8 @@
   <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15"/>
@@ -2843,7 +2885,7 @@
   </sheetPr>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
@@ -3084,11 +3126,11 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
@@ -3096,120 +3138,96 @@
     <col min="1" max="1" width="26.85546875" customWidth="1"/>
     <col min="2" max="2" width="33.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="22.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="35.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="27.75" customHeight="1">
+      <c r="A1" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="42" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+    <row r="2" spans="1:9" ht="42.75">
+      <c r="A2" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>332</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" s="43"/>
+      <c r="F2" s="44" t="s">
+        <v>333</v>
+      </c>
+      <c r="I2" s="44"/>
+    </row>
+    <row r="3" spans="1:9" ht="42.75">
+      <c r="A3" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>334</v>
+      </c>
+      <c r="C3" s="43"/>
+      <c r="D3" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="E3" s="43"/>
+      <c r="F3" s="45" t="s">
+        <v>335</v>
+      </c>
+      <c r="I3" s="44"/>
+    </row>
+    <row r="4" spans="1:9" ht="45">
+      <c r="A4" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>336</v>
+      </c>
+      <c r="C4" s="43"/>
+      <c r="D4" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="E4" s="43"/>
+      <c r="F4" s="45" t="s">
+        <v>337</v>
+      </c>
+      <c r="I4" s="45"/>
+    </row>
+    <row r="5" spans="1:9" ht="42.75">
+      <c r="A5" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>338</v>
+      </c>
+      <c r="C5" s="43"/>
+      <c r="D5" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="E5" s="43"/>
+      <c r="F5" s="45" t="s">
+        <v>339</v>
+      </c>
+      <c r="I5" s="44"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4661,75 +4679,14 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PwC_JobCode xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">F049</PwC_JobCode>
-    <PwC_JobSearch xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">F049 - ABCIII SC270</PwC_JobSearch>
-    <PwC_FiscalYear xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">FY17</PwC_FiscalYear>
-    <PwC_Language xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">EN</PwC_Language>
-    <PwC_ExpirationDate xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">2023-07-10T22:00:00+00:00</PwC_ExpirationDate>
-    <PwC_ClientCode xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">86155139</PwC_ClientCode>
-    <RelatedItems xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PwC_ClientSearch xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">86155139 - DG INFORMATICS (DIGIT)</PwC_ClientSearch>
-    <_dlc_DocId xmlns="73fde05d-ef26-44d0-b13b-b564e323f6a1">SK445ZKHUCMR-447-133</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="73fde05d-ef26-44d0-b13b-b564e323f6a1">
-      <Url>https://be-docbox.be.ema.pwcinternal.com/sites/10014628/86155139F049/_layouts/15/DocIdRedir.aspx?ID=SK445ZKHUCMR-447-133</Url>
-      <Description>SK445ZKHUCMR-447-133</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="PwC Job Document" ma:contentTypeID="0x0101008E49C3D400044AB3A2F1DD14073E74F6001D06D12572244BE3A11AAEE3ED60F576000AAB1FD6C2134AF1A3EA6F52344189D8003DA7CBE2F9F6014D91228B237B0D6438" ma:contentTypeVersion="2" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="3d6a3c6679c05d12a3160ad00a1d5007">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="73fde05d-ef26-44d0-b13b-b564e323f6a1" xmlns:ns3="885fffe5-095f-4e72-b33a-2965af2fc427" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e9ac53f853e0ef9b3d9397434b7eb735" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4940,42 +4897,85 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PwC_JobCode xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">F049</PwC_JobCode>
+    <PwC_JobSearch xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">F049 - ABCIII SC270</PwC_JobSearch>
+    <PwC_FiscalYear xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">FY17</PwC_FiscalYear>
+    <PwC_Language xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">EN</PwC_Language>
+    <PwC_ExpirationDate xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">2023-07-10T22:00:00+00:00</PwC_ExpirationDate>
+    <PwC_ClientCode xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">86155139</PwC_ClientCode>
+    <RelatedItems xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PwC_ClientSearch xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">86155139 - DG INFORMATICS (DIGIT)</PwC_ClientSearch>
+    <_dlc_DocId xmlns="73fde05d-ef26-44d0-b13b-b564e323f6a1">SK445ZKHUCMR-447-133</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="73fde05d-ef26-44d0-b13b-b564e323f6a1">
+      <Url>https://be-docbox.be.ema.pwcinternal.com/sites/10014628/86155139F049/_layouts/15/DocIdRedir.aspx?ID=SK445ZKHUCMR-447-133</Url>
+      <Description>SK445ZKHUCMR-447-133</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{704B0184-4F17-45F2-9AC0-8A30DB782E6F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08E82FCB-F73C-4EEA-86B9-8873465BC0AE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B2323CD-3102-47C1-AE6C-40C0EBF3BFA9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="73fde05d-ef26-44d0-b13b-b564e323f6a1"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="885fffe5-095f-4e72-b33a-2965af2fc427"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10E94497-4933-4E21-9510-AD09FE48006D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4995,10 +4995,28 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B2323CD-3102-47C1-AE6C-40C0EBF3BFA9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="73fde05d-ef26-44d0-b13b-b564e323f6a1"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="885fffe5-095f-4e72-b33a-2965af2fc427"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08E82FCB-F73C-4EEA-86B9-8873465BC0AE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{704B0184-4F17-45F2-9AC0-8A30DB782E6F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/source-data/dataTrento/dataTrento.xlsx
+++ b/source-data/dataTrento/dataTrento.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="6765" firstSheet="6" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="6765" firstSheet="12" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Public Service" sheetId="2" r:id="rId1"/>
@@ -1759,8 +1759,8 @@
   <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D10"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15"/>
@@ -2512,7 +2512,9 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="A2:B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -3128,7 +3130,7 @@
   </sheetPr>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
@@ -3241,7 +3243,7 @@
   </sheetPr>
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -3415,7 +3417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3697,7 +3699,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -4004,9 +4006,9 @@
   </sheetPr>
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
@@ -4327,7 +4329,7 @@
   </sheetPr>
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -4606,7 +4608,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -4679,14 +4681,75 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PwC_JobCode xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">F049</PwC_JobCode>
+    <PwC_JobSearch xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">F049 - ABCIII SC270</PwC_JobSearch>
+    <PwC_FiscalYear xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">FY17</PwC_FiscalYear>
+    <PwC_Language xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">EN</PwC_Language>
+    <PwC_ExpirationDate xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">2023-07-10T22:00:00+00:00</PwC_ExpirationDate>
+    <PwC_ClientCode xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">86155139</PwC_ClientCode>
+    <RelatedItems xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PwC_ClientSearch xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">86155139 - DG INFORMATICS (DIGIT)</PwC_ClientSearch>
+    <_dlc_DocId xmlns="73fde05d-ef26-44d0-b13b-b564e323f6a1">SK445ZKHUCMR-447-133</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="73fde05d-ef26-44d0-b13b-b564e323f6a1">
+      <Url>https://be-docbox.be.ema.pwcinternal.com/sites/10014628/86155139F049/_layouts/15/DocIdRedir.aspx?ID=SK445ZKHUCMR-447-133</Url>
+      <Description>SK445ZKHUCMR-447-133</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="PwC Job Document" ma:contentTypeID="0x0101008E49C3D400044AB3A2F1DD14073E74F6001D06D12572244BE3A11AAEE3ED60F576000AAB1FD6C2134AF1A3EA6F52344189D8003DA7CBE2F9F6014D91228B237B0D6438" ma:contentTypeVersion="2" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="3d6a3c6679c05d12a3160ad00a1d5007">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="73fde05d-ef26-44d0-b13b-b564e323f6a1" xmlns:ns3="885fffe5-095f-4e72-b33a-2965af2fc427" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e9ac53f853e0ef9b3d9397434b7eb735" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4897,85 +4960,42 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PwC_JobCode xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">F049</PwC_JobCode>
-    <PwC_JobSearch xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">F049 - ABCIII SC270</PwC_JobSearch>
-    <PwC_FiscalYear xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">FY17</PwC_FiscalYear>
-    <PwC_Language xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">EN</PwC_Language>
-    <PwC_ExpirationDate xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">2023-07-10T22:00:00+00:00</PwC_ExpirationDate>
-    <PwC_ClientCode xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">86155139</PwC_ClientCode>
-    <RelatedItems xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PwC_ClientSearch xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">86155139 - DG INFORMATICS (DIGIT)</PwC_ClientSearch>
-    <_dlc_DocId xmlns="73fde05d-ef26-44d0-b13b-b564e323f6a1">SK445ZKHUCMR-447-133</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="73fde05d-ef26-44d0-b13b-b564e323f6a1">
-      <Url>https://be-docbox.be.ema.pwcinternal.com/sites/10014628/86155139F049/_layouts/15/DocIdRedir.aspx?ID=SK445ZKHUCMR-447-133</Url>
-      <Description>SK445ZKHUCMR-447-133</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08E82FCB-F73C-4EEA-86B9-8873465BC0AE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{704B0184-4F17-45F2-9AC0-8A30DB782E6F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B2323CD-3102-47C1-AE6C-40C0EBF3BFA9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="73fde05d-ef26-44d0-b13b-b564e323f6a1"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="885fffe5-095f-4e72-b33a-2965af2fc427"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10E94497-4933-4E21-9510-AD09FE48006D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4995,28 +5015,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B2323CD-3102-47C1-AE6C-40C0EBF3BFA9}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08E82FCB-F73C-4EEA-86B9-8873465BC0AE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="73fde05d-ef26-44d0-b13b-b564e323f6a1"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="885fffe5-095f-4e72-b33a-2965af2fc427"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{704B0184-4F17-45F2-9AC0-8A30DB782E6F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/source-data/dataTrento/dataTrento.xlsx
+++ b/source-data/dataTrento/dataTrento.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="6765" firstSheet="12" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="6765" firstSheet="10" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Public Service" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="340">
   <si>
     <t>Name</t>
   </si>
@@ -1758,9 +1758,9 @@
   </sheetPr>
   <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15"/>
@@ -3130,9 +3130,9 @@
   </sheetPr>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
@@ -3170,7 +3170,9 @@
       <c r="B2" s="44" t="s">
         <v>332</v>
       </c>
-      <c r="C2" s="43"/>
+      <c r="C2" s="44" t="s">
+        <v>332</v>
+      </c>
       <c r="D2" s="44" t="s">
         <v>151</v>
       </c>
@@ -3180,14 +3182,16 @@
       </c>
       <c r="I2" s="44"/>
     </row>
-    <row r="3" spans="1:9" ht="42.75">
+    <row r="3" spans="1:9" ht="45">
       <c r="A3" s="45" t="s">
         <v>102</v>
       </c>
       <c r="B3" s="45" t="s">
         <v>334</v>
       </c>
-      <c r="C3" s="43"/>
+      <c r="C3" s="45" t="s">
+        <v>334</v>
+      </c>
       <c r="D3" s="44" t="s">
         <v>151</v>
       </c>
@@ -3197,14 +3201,16 @@
       </c>
       <c r="I3" s="44"/>
     </row>
-    <row r="4" spans="1:9" ht="45">
+    <row r="4" spans="1:9" ht="75">
       <c r="A4" s="45" t="s">
         <v>103</v>
       </c>
       <c r="B4" s="45" t="s">
         <v>336</v>
       </c>
-      <c r="C4" s="43"/>
+      <c r="C4" s="45" t="s">
+        <v>336</v>
+      </c>
       <c r="D4" s="44" t="s">
         <v>151</v>
       </c>
@@ -3221,7 +3227,9 @@
       <c r="B5" s="44" t="s">
         <v>338</v>
       </c>
-      <c r="C5" s="43"/>
+      <c r="C5" s="44" t="s">
+        <v>338</v>
+      </c>
       <c r="D5" s="44" t="s">
         <v>151</v>
       </c>
@@ -3417,7 +3425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -4681,75 +4689,14 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PwC_JobCode xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">F049</PwC_JobCode>
-    <PwC_JobSearch xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">F049 - ABCIII SC270</PwC_JobSearch>
-    <PwC_FiscalYear xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">FY17</PwC_FiscalYear>
-    <PwC_Language xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">EN</PwC_Language>
-    <PwC_ExpirationDate xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">2023-07-10T22:00:00+00:00</PwC_ExpirationDate>
-    <PwC_ClientCode xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">86155139</PwC_ClientCode>
-    <RelatedItems xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PwC_ClientSearch xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">86155139 - DG INFORMATICS (DIGIT)</PwC_ClientSearch>
-    <_dlc_DocId xmlns="73fde05d-ef26-44d0-b13b-b564e323f6a1">SK445ZKHUCMR-447-133</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="73fde05d-ef26-44d0-b13b-b564e323f6a1">
-      <Url>https://be-docbox.be.ema.pwcinternal.com/sites/10014628/86155139F049/_layouts/15/DocIdRedir.aspx?ID=SK445ZKHUCMR-447-133</Url>
-      <Description>SK445ZKHUCMR-447-133</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="PwC Job Document" ma:contentTypeID="0x0101008E49C3D400044AB3A2F1DD14073E74F6001D06D12572244BE3A11AAEE3ED60F576000AAB1FD6C2134AF1A3EA6F52344189D8003DA7CBE2F9F6014D91228B237B0D6438" ma:contentTypeVersion="2" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="3d6a3c6679c05d12a3160ad00a1d5007">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="73fde05d-ef26-44d0-b13b-b564e323f6a1" xmlns:ns3="885fffe5-095f-4e72-b33a-2965af2fc427" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e9ac53f853e0ef9b3d9397434b7eb735" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4960,42 +4907,85 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PwC_JobCode xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">F049</PwC_JobCode>
+    <PwC_JobSearch xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">F049 - ABCIII SC270</PwC_JobSearch>
+    <PwC_FiscalYear xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">FY17</PwC_FiscalYear>
+    <PwC_Language xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">EN</PwC_Language>
+    <PwC_ExpirationDate xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">2023-07-10T22:00:00+00:00</PwC_ExpirationDate>
+    <PwC_ClientCode xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">86155139</PwC_ClientCode>
+    <RelatedItems xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PwC_ClientSearch xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">86155139 - DG INFORMATICS (DIGIT)</PwC_ClientSearch>
+    <_dlc_DocId xmlns="73fde05d-ef26-44d0-b13b-b564e323f6a1">SK445ZKHUCMR-447-133</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="73fde05d-ef26-44d0-b13b-b564e323f6a1">
+      <Url>https://be-docbox.be.ema.pwcinternal.com/sites/10014628/86155139F049/_layouts/15/DocIdRedir.aspx?ID=SK445ZKHUCMR-447-133</Url>
+      <Description>SK445ZKHUCMR-447-133</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{704B0184-4F17-45F2-9AC0-8A30DB782E6F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08E82FCB-F73C-4EEA-86B9-8873465BC0AE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B2323CD-3102-47C1-AE6C-40C0EBF3BFA9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="73fde05d-ef26-44d0-b13b-b564e323f6a1"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="885fffe5-095f-4e72-b33a-2965af2fc427"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10E94497-4933-4E21-9510-AD09FE48006D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5015,10 +5005,28 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B2323CD-3102-47C1-AE6C-40C0EBF3BFA9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="73fde05d-ef26-44d0-b13b-b564e323f6a1"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="885fffe5-095f-4e72-b33a-2965af2fc427"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08E82FCB-F73C-4EEA-86B9-8873465BC0AE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{704B0184-4F17-45F2-9AC0-8A30DB782E6F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/source-data/dataTrento/dataTrento.xlsx
+++ b/source-data/dataTrento/dataTrento.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="6765" firstSheet="10" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="6765"/>
   </bookViews>
   <sheets>
     <sheet name="Public Service" sheetId="2" r:id="rId1"/>
@@ -478,13 +478,7 @@
     <t>p_TN_1665; p_TN_398; p_TN_407; p_TN_402; p_TN_399; p_TN_397; p_TN_396</t>
   </si>
   <si>
-    <t>p_TN_403; p_TN_396; p_TN_407; p_TN_1529;p_TN_402; p_TN_397; p_TN_399</t>
-  </si>
-  <si>
     <t>p_TN_403; p_TN_397; p_TN_1529; p_TN_402; p_TN_396; p_TN_399; p_TN_407</t>
-  </si>
-  <si>
-    <t>p_TN_403; p_ TN_397; p_TN_398; p_TN_1529; p_TN_396; p_TN_399; p_TN_402; p_TN_407</t>
   </si>
   <si>
     <t>p_TN_708; P_TN_704</t>
@@ -1123,6 +1117,12 @@
   </si>
   <si>
     <t>via Romagnosi 9 - 38122 Trento</t>
+  </si>
+  <si>
+    <t>p_TN_403; p_TN_396; p_TN_407; p_TN_1529; p_TN_402; p_TN_397; p_TN_399</t>
+  </si>
+  <si>
+    <t>p_TN_403; p_TN_397; p_TN_398; p_TN_1529; p_TN_396; p_TN_399; p_TN_402; p_TN_407</t>
   </si>
 </sst>
 </file>
@@ -1758,9 +1758,9 @@
   </sheetPr>
   <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N3" sqref="N3:N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15"/>
@@ -1893,7 +1893,7 @@
         <v>105</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H2" s="26" t="s">
         <v>111</v>
@@ -1913,31 +1913,31 @@
       </c>
       <c r="N2" s="24"/>
       <c r="P2" s="23" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="Q2" s="23" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="T2" s="23" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="V2" s="19" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="W2" s="23" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:26" s="2" customFormat="1" ht="69.95" customHeight="1">
@@ -1960,7 +1960,7 @@
         <v>106</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H3" s="26" t="s">
         <v>112</v>
@@ -1979,34 +1979,34 @@
         <v>137</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P3" s="31" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="Q3" s="23" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="T3" s="23" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="V3" s="19" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="W3" s="31" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="69.95" customHeight="1">
@@ -2029,7 +2029,7 @@
         <v>107</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H4" s="26" t="s">
         <v>113</v>
@@ -2050,27 +2050,27 @@
       <c r="N4" s="22"/>
       <c r="O4"/>
       <c r="P4" s="31" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="Q4" s="31" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="R4" s="25"/>
       <c r="T4" s="23" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="V4" s="19" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="W4" s="25"/>
       <c r="X4" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="69.95" customHeight="1">
@@ -2093,7 +2093,7 @@
         <v>108</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H5" s="27" t="s">
         <v>114</v>
@@ -2114,35 +2114,35 @@
         <v>138</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O5"/>
       <c r="P5" s="31" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q5" s="23" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="T5" s="23" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="V5" s="19" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="W5" s="23" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="69.95" customHeight="1">
@@ -2165,7 +2165,7 @@
         <v>105</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H6" s="27" t="s">
         <v>111</v>
@@ -2183,37 +2183,37 @@
         <v>133</v>
       </c>
       <c r="M6" s="24" t="s">
-        <v>139</v>
+        <v>338</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="P6" s="31" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="Q6" s="23" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="T6" s="23" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="V6" s="19" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="W6" s="23" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="69.95" customHeight="1">
@@ -2236,7 +2236,7 @@
         <v>105</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H7" s="27" t="s">
         <v>111</v>
@@ -2254,37 +2254,37 @@
         <v>133</v>
       </c>
       <c r="M7" s="24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N7" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="P7" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q7" s="23" t="s">
+        <v>302</v>
+      </c>
+      <c r="R7" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="P7" s="31" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q7" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="R7" s="5" t="s">
-        <v>189</v>
-      </c>
       <c r="T7" s="23" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="V7" s="19" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="W7" s="23" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="69.95" customHeight="1">
@@ -2307,7 +2307,7 @@
         <v>105</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H8" s="27" t="s">
         <v>111</v>
@@ -2325,37 +2325,37 @@
         <v>133</v>
       </c>
       <c r="M8" s="24" t="s">
-        <v>141</v>
+        <v>339</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P8" s="31" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="Q8" s="23" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="T8" s="23" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="V8" s="19" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="W8" s="23" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="X8" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="69.95" customHeight="1">
@@ -2378,7 +2378,7 @@
         <v>109</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H9" s="27" t="s">
         <v>115</v>
@@ -2394,35 +2394,35 @@
       </c>
       <c r="L9" s="24"/>
       <c r="M9" s="24" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N9" s="22"/>
       <c r="P9" s="23" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="Q9" s="23" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="T9" s="23" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="V9" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="W9" s="23" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="X9" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="69.95" customHeight="1">
@@ -2445,7 +2445,7 @@
         <v>110</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H10" s="27" t="s">
         <v>116</v>
@@ -2466,34 +2466,34 @@
         <v>134</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="P10" s="23" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="Q10" s="23" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="T10" s="23" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="V10" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="W10" s="23" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="X10" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="Z10" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -2548,29 +2548,29 @@
     </row>
     <row r="2" spans="1:7" ht="50.1" customHeight="1">
       <c r="A2" s="19" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:7" ht="50.1" customHeight="1">
       <c r="A3" s="19" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:7" ht="50.1" customHeight="1">
       <c r="A4" s="19" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="2"/>
@@ -2578,10 +2578,10 @@
     </row>
     <row r="5" spans="1:7" ht="50.1" customHeight="1">
       <c r="A5" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -2912,162 +2912,162 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="16" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="16" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="16" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="16" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="16" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="16" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="16" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="16" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="16" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="16" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="16" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="16" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="16" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="16" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="16" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="16" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15" customHeight="1">
       <c r="A18" s="16" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B18" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15" customHeight="1">
       <c r="A19" s="16" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B19" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15" customHeight="1">
       <c r="A20" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -3130,7 +3130,7 @@
   </sheetPr>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
@@ -3168,17 +3168,17 @@
         <v>101</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D2" s="44" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E2" s="43"/>
       <c r="F2" s="44" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I2" s="44"/>
     </row>
@@ -3187,17 +3187,17 @@
         <v>102</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C3" s="45" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D3" s="44" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E3" s="43"/>
       <c r="F3" s="45" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I3" s="44"/>
     </row>
@@ -3206,17 +3206,17 @@
         <v>103</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C4" s="45" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D4" s="44" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E4" s="43"/>
       <c r="F4" s="45" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I4" s="45"/>
     </row>
@@ -3225,17 +3225,17 @@
         <v>104</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D5" s="44" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E5" s="43"/>
       <c r="F5" s="45" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I5" s="44"/>
     </row>
@@ -3304,62 +3304,62 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D2" s="9"/>
       <c r="I2" s="33" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D3" s="5"/>
       <c r="I3" s="33" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D4" s="5"/>
       <c r="I4" s="33" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D5" s="5"/>
       <c r="I5" s="33" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3438,47 +3438,47 @@
         <v>66</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -3526,16 +3526,16 @@
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="26.25" customHeight="1">
       <c r="A2" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>172</v>
-      </c>
       <c r="C2" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -3546,45 +3546,45 @@
         <v>129</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E3" s="12"/>
       <c r="G3" s="31"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>176</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E4" s="5"/>
       <c r="G4" s="31"/>
     </row>
     <row r="5" spans="1:7" ht="60">
       <c r="A5" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E5" s="5"/>
       <c r="G5" s="30"/>
@@ -3594,13 +3594,13 @@
         <v>128</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E6" s="5"/>
       <c r="G6" s="24"/>
@@ -4050,233 +4050,233 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="16" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="16" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="16" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30">
       <c r="A5" s="16" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="16" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="16" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="16" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="16" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="16" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="16" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="16" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="16" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="16" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="16" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="16" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="16" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="16" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:8" ht="15" customHeight="1">
       <c r="A20" s="16" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1">
       <c r="A21" s="16" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1">
       <c r="A22" s="16" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1">
       <c r="A23" s="16" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1">
       <c r="A24" s="16" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B24" s="38" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1">
       <c r="A25" s="16" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B25" s="38" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="H25" s="36"/>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1">
       <c r="A26" s="16" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B26" s="38" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H26" s="36"/>
     </row>
@@ -4363,54 +4363,54 @@
     </row>
     <row r="2" spans="1:3" ht="39.950000000000003" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="39.950000000000003" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:3" ht="39.950000000000003" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:3" ht="39.950000000000003" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:3" ht="39.950000000000003" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:3" ht="39.950000000000003" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C7" s="5"/>
     </row>
@@ -4499,20 +4499,20 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -4650,34 +4650,34 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="3"/>
       <c r="D2" s="31" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="3"/>
       <c r="D3" s="24" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="3"/>
       <c r="D4" s="23" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E4" s="3"/>
     </row>

--- a/source-data/dataTrento/dataTrento.xlsx
+++ b/source-data/dataTrento/dataTrento.xlsx
@@ -1758,9 +1758,9 @@
   </sheetPr>
   <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N3" sqref="N3:N10"/>
+      <selection pane="bottomLeft" activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15"/>
@@ -2472,7 +2472,7 @@
         <v>257</v>
       </c>
       <c r="Q10" s="23" t="s">
-        <v>146</v>
+        <v>296</v>
       </c>
       <c r="R10" s="5" t="s">
         <v>187</v>
@@ -2889,7 +2889,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>

--- a/source-data/dataTrento/dataTrento.xlsx
+++ b/source-data/dataTrento/dataTrento.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="6765"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="6765" firstSheet="8" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Public Service" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="339">
   <si>
     <t>Name</t>
   </si>
@@ -735,9 +735,6 @@
   </si>
   <si>
     <t>P6M</t>
-  </si>
-  <si>
-    <t>Label</t>
   </si>
   <si>
     <t>89273F0114CC60DF4F1E4C08C754CA98</t>
@@ -1758,7 +1755,7 @@
   </sheetPr>
   <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Q11" sqref="Q11"/>
     </sheetView>
@@ -1913,10 +1910,10 @@
       </c>
       <c r="N2" s="24"/>
       <c r="P2" s="23" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Q2" s="23" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="R2" s="5" t="s">
         <v>187</v>
@@ -1928,16 +1925,16 @@
         <v>201</v>
       </c>
       <c r="V2" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="W2" s="23" t="s">
         <v>205</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:26" s="2" customFormat="1" ht="69.95" customHeight="1">
@@ -1982,10 +1979,10 @@
         <v>182</v>
       </c>
       <c r="P3" s="31" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q3" s="23" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="R3" s="5" t="s">
         <v>188</v>
@@ -1997,16 +1994,16 @@
         <v>202</v>
       </c>
       <c r="V3" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="W3" s="31" t="s">
         <v>206</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="69.95" customHeight="1">
@@ -2050,10 +2047,10 @@
       <c r="N4" s="22"/>
       <c r="O4"/>
       <c r="P4" s="31" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Q4" s="31" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="R4" s="25"/>
       <c r="T4" s="23" t="s">
@@ -2063,14 +2060,14 @@
         <v>203</v>
       </c>
       <c r="V4" s="19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="W4" s="25"/>
       <c r="X4" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="69.95" customHeight="1">
@@ -2118,10 +2115,10 @@
       </c>
       <c r="O5"/>
       <c r="P5" s="31" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Q5" s="23" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="R5" s="5" t="s">
         <v>187</v>
@@ -2133,16 +2130,16 @@
         <v>201</v>
       </c>
       <c r="V5" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="W5" s="23" t="s">
         <v>207</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="69.95" customHeight="1">
@@ -2183,16 +2180,16 @@
         <v>133</v>
       </c>
       <c r="M6" s="24" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N6" s="5" t="s">
         <v>184</v>
       </c>
       <c r="P6" s="31" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q6" s="23" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="R6" s="5" t="s">
         <v>187</v>
@@ -2204,16 +2201,16 @@
         <v>201</v>
       </c>
       <c r="V6" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="W6" s="23" t="s">
         <v>208</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="69.95" customHeight="1">
@@ -2260,10 +2257,10 @@
         <v>185</v>
       </c>
       <c r="P7" s="31" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Q7" s="23" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="R7" s="5" t="s">
         <v>187</v>
@@ -2275,16 +2272,16 @@
         <v>201</v>
       </c>
       <c r="V7" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="W7" s="23" t="s">
         <v>207</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="69.95" customHeight="1">
@@ -2325,16 +2322,16 @@
         <v>133</v>
       </c>
       <c r="M8" s="24" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="N8" s="5" t="s">
         <v>186</v>
       </c>
       <c r="P8" s="31" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Q8" s="23" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="R8" s="5" t="s">
         <v>187</v>
@@ -2346,16 +2343,16 @@
         <v>201</v>
       </c>
       <c r="V8" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="W8" s="23" t="s">
         <v>209</v>
       </c>
       <c r="X8" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="69.95" customHeight="1">
@@ -2398,10 +2395,10 @@
       </c>
       <c r="N9" s="22"/>
       <c r="P9" s="23" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q9" s="23" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="R9" s="5" t="s">
         <v>187</v>
@@ -2413,16 +2410,16 @@
         <v>204</v>
       </c>
       <c r="V9" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="W9" s="23" t="s">
         <v>210</v>
       </c>
       <c r="X9" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="69.95" customHeight="1">
@@ -2469,10 +2466,10 @@
         <v>187</v>
       </c>
       <c r="P10" s="23" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Q10" s="23" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="R10" s="5" t="s">
         <v>187</v>
@@ -2484,16 +2481,16 @@
         <v>204</v>
       </c>
       <c r="V10" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="W10" s="23" t="s">
         <v>208</v>
       </c>
       <c r="X10" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z10" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -2548,7 +2545,7 @@
     </row>
     <row r="2" spans="1:7" ht="50.1" customHeight="1">
       <c r="A2" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B2" s="23" t="s">
         <v>150</v>
@@ -2558,7 +2555,7 @@
     </row>
     <row r="3" spans="1:7" ht="50.1" customHeight="1">
       <c r="A3" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B3" s="23" t="s">
         <v>151</v>
@@ -2567,7 +2564,7 @@
     </row>
     <row r="4" spans="1:7" ht="50.1" customHeight="1">
       <c r="A4" s="19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B4" s="24" t="s">
         <v>152</v>
@@ -2578,7 +2575,7 @@
     </row>
     <row r="5" spans="1:7" ht="50.1" customHeight="1">
       <c r="A5" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B5" s="23" t="s">
         <v>153</v>
@@ -2912,159 +2909,159 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="16" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="16" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="16" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15" customHeight="1">
       <c r="A18" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15" customHeight="1">
       <c r="A19" s="16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15" customHeight="1">
       <c r="A20" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B21" s="16" t="s">
         <v>146</v>
@@ -3168,17 +3165,17 @@
         <v>101</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D2" s="44" t="s">
         <v>149</v>
       </c>
       <c r="E2" s="43"/>
       <c r="F2" s="44" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I2" s="44"/>
     </row>
@@ -3187,17 +3184,17 @@
         <v>102</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C3" s="45" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D3" s="44" t="s">
         <v>149</v>
       </c>
       <c r="E3" s="43"/>
       <c r="F3" s="45" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I3" s="44"/>
     </row>
@@ -3206,17 +3203,17 @@
         <v>103</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C4" s="45" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D4" s="44" t="s">
         <v>149</v>
       </c>
       <c r="E4" s="43"/>
       <c r="F4" s="45" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I4" s="45"/>
     </row>
@@ -3225,17 +3222,17 @@
         <v>104</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D5" s="44" t="s">
         <v>149</v>
       </c>
       <c r="E5" s="43"/>
       <c r="F5" s="45" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I5" s="44"/>
     </row>
@@ -3425,7 +3422,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3438,12 +3437,12 @@
         <v>66</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B2" s="23" t="s">
         <v>157</v>
@@ -3451,7 +3450,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B3" s="23" t="s">
         <v>158</v>
@@ -3459,7 +3458,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B4" s="23" t="s">
         <v>159</v>
@@ -3467,7 +3466,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B5" s="24" t="s">
         <v>160</v>
@@ -3475,7 +3474,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B6" s="24" t="s">
         <v>161</v>
@@ -4050,233 +4049,233 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30">
       <c r="A5" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:8" ht="15" customHeight="1">
       <c r="A20" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1">
       <c r="A21" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1">
       <c r="A22" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1">
       <c r="A23" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1">
       <c r="A24" s="16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B24" s="38" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1">
       <c r="A25" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B25" s="38" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H25" s="36"/>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1">
       <c r="A26" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B26" s="38" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H26" s="36"/>
     </row>
@@ -4613,11 +4612,11 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
@@ -4650,7 +4649,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="3"/>
@@ -4661,7 +4660,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="3"/>
@@ -4672,7 +4671,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="3"/>
@@ -4680,6 +4679,36 @@
         <v>156</v>
       </c>
       <c r="E4" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1">
+      <c r="A6" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="31" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1">
+      <c r="A7" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="45" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1">
+      <c r="A8" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="44" t="s">
+        <v>156</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4689,14 +4718,75 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PwC_JobCode xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">F049</PwC_JobCode>
+    <PwC_JobSearch xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">F049 - ABCIII SC270</PwC_JobSearch>
+    <PwC_FiscalYear xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">FY17</PwC_FiscalYear>
+    <PwC_Language xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">EN</PwC_Language>
+    <PwC_ExpirationDate xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">2023-07-10T22:00:00+00:00</PwC_ExpirationDate>
+    <PwC_ClientCode xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">86155139</PwC_ClientCode>
+    <RelatedItems xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PwC_ClientSearch xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">86155139 - DG INFORMATICS (DIGIT)</PwC_ClientSearch>
+    <_dlc_DocId xmlns="73fde05d-ef26-44d0-b13b-b564e323f6a1">SK445ZKHUCMR-447-133</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="73fde05d-ef26-44d0-b13b-b564e323f6a1">
+      <Url>https://be-docbox.be.ema.pwcinternal.com/sites/10014628/86155139F049/_layouts/15/DocIdRedir.aspx?ID=SK445ZKHUCMR-447-133</Url>
+      <Description>SK445ZKHUCMR-447-133</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="PwC Job Document" ma:contentTypeID="0x0101008E49C3D400044AB3A2F1DD14073E74F6001D06D12572244BE3A11AAEE3ED60F576000AAB1FD6C2134AF1A3EA6F52344189D8003DA7CBE2F9F6014D91228B237B0D6438" ma:contentTypeVersion="2" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="3d6a3c6679c05d12a3160ad00a1d5007">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="73fde05d-ef26-44d0-b13b-b564e323f6a1" xmlns:ns3="885fffe5-095f-4e72-b33a-2965af2fc427" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e9ac53f853e0ef9b3d9397434b7eb735" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4907,85 +4997,42 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PwC_JobCode xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">F049</PwC_JobCode>
-    <PwC_JobSearch xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">F049 - ABCIII SC270</PwC_JobSearch>
-    <PwC_FiscalYear xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">FY17</PwC_FiscalYear>
-    <PwC_Language xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">EN</PwC_Language>
-    <PwC_ExpirationDate xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">2023-07-10T22:00:00+00:00</PwC_ExpirationDate>
-    <PwC_ClientCode xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">86155139</PwC_ClientCode>
-    <RelatedItems xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PwC_ClientSearch xmlns="885fffe5-095f-4e72-b33a-2965af2fc427">86155139 - DG INFORMATICS (DIGIT)</PwC_ClientSearch>
-    <_dlc_DocId xmlns="73fde05d-ef26-44d0-b13b-b564e323f6a1">SK445ZKHUCMR-447-133</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="73fde05d-ef26-44d0-b13b-b564e323f6a1">
-      <Url>https://be-docbox.be.ema.pwcinternal.com/sites/10014628/86155139F049/_layouts/15/DocIdRedir.aspx?ID=SK445ZKHUCMR-447-133</Url>
-      <Description>SK445ZKHUCMR-447-133</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08E82FCB-F73C-4EEA-86B9-8873465BC0AE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{704B0184-4F17-45F2-9AC0-8A30DB782E6F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B2323CD-3102-47C1-AE6C-40C0EBF3BFA9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="73fde05d-ef26-44d0-b13b-b564e323f6a1"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="885fffe5-095f-4e72-b33a-2965af2fc427"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10E94497-4933-4E21-9510-AD09FE48006D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5005,28 +5052,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B2323CD-3102-47C1-AE6C-40C0EBF3BFA9}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08E82FCB-F73C-4EEA-86B9-8873465BC0AE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="73fde05d-ef26-44d0-b13b-b564e323f6a1"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="885fffe5-095f-4e72-b33a-2965af2fc427"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{704B0184-4F17-45F2-9AC0-8A30DB782E6F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/source-data/dataTrento/dataTrento.xlsx
+++ b/source-data/dataTrento/dataTrento.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="990" firstSheet="6" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="990" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Public Service" sheetId="1" r:id="rId1"/>
     <sheet name="Business Event" sheetId="2" r:id="rId2"/>
     <sheet name="Life Event" sheetId="3" r:id="rId3"/>
-    <sheet name="Public Service Dataset" sheetId="4" r:id="rId4"/>
+    <sheet name="PS Dataset" sheetId="4" r:id="rId4"/>
     <sheet name="Participation" sheetId="5" r:id="rId5"/>
     <sheet name="Criterion Requirement" sheetId="6" r:id="rId6"/>
     <sheet name="Evidence" sheetId="7" r:id="rId7"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="1115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1817" uniqueCount="1113">
   <si>
     <t>PSURI</t>
   </si>
@@ -2634,9 +2634,6 @@
     <t>if Accessed Through</t>
   </si>
   <si>
-    <t>EUR-Euro</t>
-  </si>
-  <si>
     <t>Marca da bollo da 16 euro, se non esenti</t>
   </si>
   <si>
@@ -3735,9 +3732,6 @@
   </si>
   <si>
     <t>OutputURI</t>
-  </si>
-  <si>
-    <t>Identifier</t>
   </si>
   <si>
     <t>Contributi</t>
@@ -8510,22 +8504,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>812</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>813</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>814</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>815</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>816</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9537,7 +9531,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -9549,7 +9543,7 @@
         <v>8</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -10560,7 +10554,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="32" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -10571,90 +10565,90 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="34" t="s">
+        <v>820</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>821</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="35" t="s">
+        <v>822</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>823</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="34" t="s">
+        <v>824</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>825</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="35" t="s">
+        <v>826</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>827</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="34" t="s">
+        <v>828</v>
+      </c>
+      <c r="B6" s="36" t="s">
         <v>829</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>830</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="35" t="s">
+        <v>830</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>831</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="35" t="s">
+        <v>832</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>833</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="35" t="s">
+        <v>834</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>835</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="35" t="s">
+        <v>836</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>837</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="34" t="s">
+        <v>838</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>839</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="35" t="s">
+        <v>840</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>841</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>842</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -10662,95 +10656,95 @@
         <v>140</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="35" t="s">
+        <v>843</v>
+      </c>
+      <c r="B14" s="36" t="s">
         <v>844</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>845</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="35" t="s">
+        <v>845</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>846</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="35" t="s">
+        <v>847</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>848</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>849</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="35" t="s">
+        <v>849</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>850</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>851</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="35" t="s">
+        <v>851</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>852</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>853</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="35" t="s">
+        <v>853</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>854</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>855</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="34" t="s">
+        <v>855</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>856</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="35" t="s">
+        <v>857</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>858</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>859</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="34" t="s">
+        <v>859</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>860</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="35" t="s">
+        <v>861</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>862</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>863</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="34" t="s">
+        <v>863</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>864</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -10758,119 +10752,119 @@
         <v>55</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="34" t="s">
+        <v>866</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>867</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="35" t="s">
+        <v>868</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>869</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="34" t="s">
+        <v>870</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>871</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>872</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="34" t="s">
+        <v>872</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>873</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>874</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="34" t="s">
+        <v>874</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>875</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>876</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="34" t="s">
+        <v>876</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>877</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>878</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="34" t="s">
+        <v>878</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>879</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="35" t="s">
+        <v>880</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>881</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>882</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="35" t="s">
+        <v>882</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>883</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>884</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="35" t="s">
+        <v>884</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>885</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>886</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="35" t="s">
+        <v>886</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>887</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>888</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="35" t="s">
+        <v>888</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>889</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>890</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="34" t="s">
+        <v>890</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>891</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>892</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="34" t="s">
+        <v>892</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>893</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>894</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -10878,47 +10872,47 @@
         <v>281</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="34" t="s">
+        <v>895</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>896</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>897</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="35" t="s">
+        <v>897</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>898</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>899</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="35" t="s">
+        <v>899</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>900</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="35" t="s">
+        <v>901</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>902</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>903</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="35" t="s">
+        <v>903</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>904</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
@@ -10926,247 +10920,247 @@
         <v>271</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="35" t="s">
+        <v>906</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>907</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>908</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="34" t="s">
+        <v>908</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>909</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>910</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="34" t="s">
+        <v>910</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>911</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="34" t="s">
+        <v>912</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>913</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>914</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="35" t="s">
+        <v>914</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>915</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="34" t="s">
+        <v>916</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>917</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="35" t="s">
+        <v>918</v>
+      </c>
+      <c r="B53" s="36" t="s">
         <v>919</v>
-      </c>
-      <c r="B53" s="36" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="34" t="s">
+        <v>920</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>921</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>922</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="34" t="s">
+        <v>922</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>923</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>924</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="34" t="s">
+        <v>924</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>925</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>926</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="35" t="s">
+        <v>926</v>
+      </c>
+      <c r="B57" s="5" t="s">
         <v>927</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>928</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="34" t="s">
+        <v>928</v>
+      </c>
+      <c r="B58" s="5" t="s">
         <v>929</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="34" t="s">
+        <v>930</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>931</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>932</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="34" t="s">
+        <v>932</v>
+      </c>
+      <c r="B60" s="5" t="s">
         <v>933</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>934</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="34" t="s">
+        <v>934</v>
+      </c>
+      <c r="B61" s="5" t="s">
         <v>935</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="34" t="s">
+        <v>936</v>
+      </c>
+      <c r="B62" s="5" t="s">
         <v>937</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>938</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="35" t="s">
+        <v>938</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>939</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="34" t="s">
+        <v>940</v>
+      </c>
+      <c r="B64" s="5" t="s">
         <v>941</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="34" t="s">
+        <v>942</v>
+      </c>
+      <c r="B65" s="5" t="s">
         <v>943</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="34" t="s">
+        <v>944</v>
+      </c>
+      <c r="B66" s="5" t="s">
         <v>945</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>946</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="35" t="s">
+        <v>946</v>
+      </c>
+      <c r="B67" s="5" t="s">
         <v>947</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="35" t="s">
+        <v>948</v>
+      </c>
+      <c r="B68" s="5" t="s">
         <v>949</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>950</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="35" t="s">
+        <v>950</v>
+      </c>
+      <c r="B69" s="5" t="s">
         <v>951</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>952</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="35" t="s">
+        <v>952</v>
+      </c>
+      <c r="B70" s="5" t="s">
         <v>953</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="35" t="s">
+        <v>954</v>
+      </c>
+      <c r="B71" s="5" t="s">
         <v>955</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>956</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="34" t="s">
+        <v>956</v>
+      </c>
+      <c r="B72" s="5" t="s">
         <v>957</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>958</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="34" t="s">
+        <v>958</v>
+      </c>
+      <c r="B73" s="5" t="s">
         <v>959</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>960</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="34" t="s">
+        <v>960</v>
+      </c>
+      <c r="B74" s="5" t="s">
         <v>961</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>962</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="35" t="s">
+        <v>962</v>
+      </c>
+      <c r="B75" s="5" t="s">
         <v>963</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="35" t="s">
+        <v>964</v>
+      </c>
+      <c r="B76" s="5" t="s">
         <v>965</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11174,7 +11168,7 @@
         <v>455</v>
       </c>
       <c r="B77" s="36" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11182,23 +11176,23 @@
         <v>244</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="35" t="s">
+        <v>968</v>
+      </c>
+      <c r="B79" s="5" t="s">
         <v>969</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>970</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="34" t="s">
+        <v>970</v>
+      </c>
+      <c r="B80" s="5" t="s">
         <v>971</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>972</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11206,23 +11200,23 @@
         <v>38</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="35" t="s">
+        <v>973</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>974</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>975</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="35" t="s">
+        <v>975</v>
+      </c>
+      <c r="B83" s="36" t="s">
         <v>976</v>
-      </c>
-      <c r="B83" s="36" t="s">
-        <v>977</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11230,63 +11224,63 @@
         <v>68</v>
       </c>
       <c r="B84" s="36" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="35" t="s">
+        <v>978</v>
+      </c>
+      <c r="B85" s="5" t="s">
         <v>979</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>980</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="34" t="s">
+        <v>980</v>
+      </c>
+      <c r="B86" s="36" t="s">
         <v>981</v>
-      </c>
-      <c r="B86" s="36" t="s">
-        <v>982</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="35" t="s">
+        <v>982</v>
+      </c>
+      <c r="B87" s="5" t="s">
         <v>983</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>984</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="34" t="s">
+        <v>984</v>
+      </c>
+      <c r="B88" s="5" t="s">
         <v>985</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>986</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="34" t="s">
+        <v>986</v>
+      </c>
+      <c r="B89" s="3" t="s">
         <v>987</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>988</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="34" t="s">
+        <v>988</v>
+      </c>
+      <c r="B90" s="5" t="s">
         <v>989</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>990</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="34" t="s">
+        <v>990</v>
+      </c>
+      <c r="B91" s="5" t="s">
         <v>991</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>992</v>
       </c>
     </row>
   </sheetData>
@@ -11317,16 +11311,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>994</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>995</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -12341,22 +12335,22 @@
   <sheetData>
     <row r="1" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>994</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>995</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
@@ -12364,17 +12358,17 @@
         <v>29</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="G2" s="36"/>
       <c r="H2" s="36"/>
@@ -12402,17 +12396,17 @@
         <v>47</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="G3" s="36"/>
       <c r="H3" s="36"/>
@@ -12440,17 +12434,17 @@
         <v>276</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="G4" s="36"/>
       <c r="H4" s="36"/>
@@ -12478,17 +12472,17 @@
         <v>289</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="G5" s="36"/>
       <c r="H5" s="36"/>
@@ -12516,17 +12510,17 @@
         <v>360</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="G6" s="36"/>
       <c r="H6" s="36"/>
@@ -12554,17 +12548,17 @@
         <v>133</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="G7" s="36"/>
       <c r="H7" s="36"/>
@@ -12592,17 +12586,17 @@
         <v>160</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="G8" s="36"/>
       <c r="H8" s="36"/>
@@ -12630,17 +12624,17 @@
         <v>240</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="G9" s="36"/>
       <c r="H9" s="36"/>
@@ -12668,17 +12662,17 @@
         <v>252</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="G10" s="36"/>
       <c r="H10" s="36"/>
@@ -12706,17 +12700,17 @@
         <v>173</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="G11" s="36"/>
       <c r="H11" s="36"/>
@@ -12744,17 +12738,17 @@
         <v>337</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="G12" s="36"/>
       <c r="H12" s="36"/>
@@ -12782,17 +12776,17 @@
         <v>348</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="G13" s="36"/>
       <c r="H13" s="36"/>
@@ -12820,17 +12814,17 @@
         <v>110</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="G14" s="36"/>
       <c r="H14" s="36"/>
@@ -12858,17 +12852,17 @@
         <v>327</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E15" s="25"/>
       <c r="F15" s="24" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -13850,43 +13844,43 @@
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1021</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1022</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>1023</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>1024</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1025</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="24" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>1026</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="C2" s="37" t="s">
         <v>1027</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>1028</v>
       </c>
       <c r="D2" s="24"/>
       <c r="E2" s="37" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="24" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B3" s="24" t="s">
         <v>1030</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>1031</v>
       </c>
       <c r="C3" s="37"/>
       <c r="D3" s="24"/>
@@ -13895,10 +13889,10 @@
     </row>
     <row r="4" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="24" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>1032</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>1033</v>
       </c>
       <c r="C4" s="37"/>
       <c r="D4" s="24"/>
@@ -13907,10 +13901,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B5" s="24" t="s">
         <v>1034</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>1035</v>
       </c>
       <c r="C5" s="38"/>
       <c r="D5" s="24"/>
@@ -13922,39 +13916,39 @@
         <v>177</v>
       </c>
       <c r="B6" s="24" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C6" s="37" t="s">
         <v>1036</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>1037</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="37" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="27" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B7" s="24" t="s">
         <v>1039</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="C7" s="37" t="s">
         <v>1040</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>1041</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="37" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="27" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B8" s="27" t="s">
         <v>1043</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>1044</v>
       </c>
       <c r="C8" s="37"/>
       <c r="D8" s="24"/>
@@ -13963,26 +13957,26 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="27" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B9" s="24" t="s">
         <v>1045</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="C9" s="37" t="s">
         <v>1046</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>1047</v>
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="37" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="27" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B10" s="27" t="s">
         <v>1049</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>1050</v>
       </c>
       <c r="C10" s="37"/>
       <c r="D10" s="24"/>
@@ -13994,26 +13988,26 @@
         <v>165</v>
       </c>
       <c r="B11" s="24" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C11" s="37" t="s">
         <v>1051</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>1052</v>
       </c>
       <c r="D11" s="24"/>
       <c r="E11" s="37" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="27" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B12" s="27" t="s">
         <v>1054</v>
       </c>
-      <c r="B12" s="27" t="s">
-        <v>1055</v>
-      </c>
       <c r="C12" s="27" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="D12" s="39"/>
       <c r="E12" s="39"/>
@@ -14021,10 +14015,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="27" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B13" s="27" t="s">
         <v>1056</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>1057</v>
       </c>
       <c r="C13" s="37"/>
       <c r="D13" s="39"/>
@@ -14036,10 +14030,10 @@
         <v>217</v>
       </c>
       <c r="B14" s="27" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C14" s="37" t="s">
         <v>1058</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>1059</v>
       </c>
       <c r="D14" s="39"/>
       <c r="E14" s="39"/>
@@ -14047,13 +14041,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B15" s="27" t="s">
         <v>1060</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="C15" s="37" t="s">
         <v>1061</v>
-      </c>
-      <c r="C15" s="37" t="s">
-        <v>1062</v>
       </c>
       <c r="D15" s="39"/>
       <c r="E15" s="39"/>
@@ -14061,10 +14055,10 @@
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B16" s="27" t="s">
         <v>1063</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>1064</v>
       </c>
       <c r="C16" s="39"/>
       <c r="D16" s="39"/>
@@ -14073,25 +14067,25 @@
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="24" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B17" s="24" t="s">
         <v>1065</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="C17" s="40" t="s">
         <v>1066</v>
-      </c>
-      <c r="C17" s="40" t="s">
-        <v>1067</v>
       </c>
       <c r="D17" s="25"/>
       <c r="E17" s="40" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="24" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B18" s="25" t="s">
         <v>1069</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>1070</v>
       </c>
       <c r="C18" s="40"/>
       <c r="D18" s="25"/>
@@ -14099,25 +14093,25 @@
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="24" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B19" s="24" t="s">
         <v>1071</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="C19" s="40" t="s">
         <v>1072</v>
-      </c>
-      <c r="C19" s="40" t="s">
-        <v>1073</v>
       </c>
       <c r="D19" s="25"/>
       <c r="E19" s="40" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="24" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B20" s="25" t="s">
         <v>1075</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>1076</v>
       </c>
       <c r="C20" s="40"/>
       <c r="D20" s="25"/>
@@ -14125,25 +14119,25 @@
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="24" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B21" s="24" t="s">
         <v>1077</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="C21" s="40" t="s">
         <v>1078</v>
-      </c>
-      <c r="C21" s="40" t="s">
-        <v>1079</v>
       </c>
       <c r="D21" s="25"/>
       <c r="E21" s="40" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="24" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B22" s="25" t="s">
         <v>1081</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>1082</v>
       </c>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
@@ -14151,25 +14145,25 @@
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="25" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B23" s="25" t="s">
         <v>1083</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="C23" s="40" t="s">
         <v>1084</v>
-      </c>
-      <c r="C23" s="40" t="s">
-        <v>1085</v>
       </c>
       <c r="D23" s="25"/>
       <c r="E23" s="40" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="25" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B24" s="25" t="s">
         <v>1087</v>
-      </c>
-      <c r="B24" s="25" t="s">
-        <v>1088</v>
       </c>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
@@ -14177,25 +14171,25 @@
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="25" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B25" s="25" t="s">
         <v>1089</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="C25" s="25" t="s">
         <v>1090</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>1091</v>
       </c>
       <c r="D25" s="25"/>
       <c r="E25" s="40" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="25" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B26" s="25" t="s">
         <v>1093</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>1094</v>
       </c>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
@@ -14203,25 +14197,25 @@
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B27" s="25" t="s">
         <v>1095</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="C27" s="25" t="s">
         <v>1096</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>1097</v>
       </c>
       <c r="D27" s="25"/>
       <c r="E27" s="40" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B28" s="25" t="s">
         <v>1099</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>1100</v>
       </c>
       <c r="C28" s="41"/>
       <c r="D28" s="41"/>
@@ -14237,7 +14231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -15256,103 +15250,94 @@
   <sheetPr>
     <tabColor rgb="FF5B9BD5"/>
   </sheetPr>
-  <dimension ref="A1:E1000"/>
+  <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.6328125"/>
-    <col min="2" max="2" width="15.26953125"/>
-    <col min="3" max="3" width="37.54296875"/>
-    <col min="4" max="4" width="11.36328125"/>
-    <col min="5" max="26" width="14.81640625"/>
-    <col min="27" max="1025" width="14.1796875"/>
+    <col min="2" max="2" width="37.54296875"/>
+    <col min="3" max="3" width="11.36328125"/>
+    <col min="4" max="25" width="14.81640625"/>
+    <col min="26" max="1024" width="14.1796875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1102</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="44" t="s">
-        <v>1103</v>
-      </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="44" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B2" s="44" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="44" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="35" t="s">
-        <v>1105</v>
-      </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="35" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B3" s="35" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C3" s="41"/>
+      <c r="D3" s="35" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="35" t="s">
         <v>397</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="35" t="s">
-        <v>1107</v>
-      </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="35" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B4" s="35" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C4" s="41"/>
+      <c r="D4" s="35" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="35" t="s">
         <v>424</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="35" t="s">
-        <v>1109</v>
-      </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="35" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B5" s="35" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C5" s="41"/>
+      <c r="D5" s="35" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="35" t="s">
-        <v>1111</v>
-      </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="35" t="s">
-        <v>1112</v>
+      <c r="B6" s="35" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C6" s="41"/>
+      <c r="D6" s="35" t="s">
+        <v>1110</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -16355,7 +16340,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -20041,9 +20026,9 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -27182,8 +27167,8 @@
   <dimension ref="A1:F1031"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -27222,14 +27207,10 @@
       <c r="A2" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="28">
-        <v>16</v>
-      </c>
-      <c r="C2" s="29" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29" t="s">
         <v>758</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>759</v>
       </c>
       <c r="E2" s="30"/>
     </row>
@@ -27237,47 +27218,43 @@
       <c r="A3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="31">
-        <v>0</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>758</v>
-      </c>
+      <c r="B3" s="31"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="25" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E3" s="30"/>
     </row>
     <row r="4" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
       <c r="D4" s="25" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E4" s="30"/>
     </row>
     <row r="5" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
       <c r="D5" s="25" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E5" s="30"/>
     </row>
     <row r="6" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E6" s="30"/>
     </row>
@@ -27288,7 +27265,7 @@
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
       <c r="D7" s="25" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E7" s="30"/>
     </row>
@@ -27299,7 +27276,7 @@
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
       <c r="D8" s="4" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E8" s="30"/>
     </row>
@@ -27310,7 +27287,7 @@
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
       <c r="D9" s="3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E9" s="30"/>
     </row>
@@ -27321,7 +27298,7 @@
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
       <c r="D10" s="3" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E10" s="30"/>
     </row>
@@ -27332,7 +27309,7 @@
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
       <c r="D11" s="5" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E11" s="30"/>
     </row>
@@ -27343,7 +27320,7 @@
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
       <c r="D12" s="5" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E12" s="30"/>
     </row>
@@ -27354,7 +27331,7 @@
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
       <c r="D13" s="5" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E13" s="30"/>
     </row>
@@ -27365,7 +27342,7 @@
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
       <c r="D14" s="5" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E14" s="30"/>
     </row>
@@ -27376,7 +27353,7 @@
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
       <c r="D15" s="5" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E15" s="30"/>
     </row>
@@ -27387,7 +27364,7 @@
       <c r="B16" s="25"/>
       <c r="C16" s="25"/>
       <c r="D16" s="3" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E16" s="30"/>
     </row>
@@ -27398,7 +27375,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="5" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E17" s="30"/>
     </row>
@@ -27409,7 +27386,7 @@
       <c r="B18" s="25"/>
       <c r="C18" s="25"/>
       <c r="D18" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E18" s="30"/>
     </row>
@@ -28423,13 +28400,13 @@
   <sheetData>
     <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="32" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B1" s="33" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D1" s="33" t="s">
         <v>7</v>
@@ -28438,10 +28415,10 @@
         <v>15</v>
       </c>
       <c r="F1" s="33" t="s">
+        <v>779</v>
+      </c>
+      <c r="G1" s="33" t="s">
         <v>780</v>
-      </c>
-      <c r="G1" s="33" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="56" x14ac:dyDescent="0.35">
@@ -28449,7 +28426,7 @@
         <v>41</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C2" s="4"/>
     </row>
@@ -28458,7 +28435,7 @@
         <v>58</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C3" s="5"/>
     </row>
@@ -28467,7 +28444,7 @@
         <v>71</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="30"/>
@@ -28477,7 +28454,7 @@
         <v>80</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C5" s="5"/>
       <c r="E5" s="4"/>
@@ -28487,7 +28464,7 @@
         <v>92</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C6" s="5"/>
     </row>
@@ -28496,7 +28473,7 @@
         <v>104</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C7" s="4"/>
     </row>
@@ -28505,7 +28482,7 @@
         <v>116</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C8" s="4"/>
     </row>
@@ -28514,7 +28491,7 @@
         <v>127</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C9" s="5"/>
     </row>
@@ -28523,7 +28500,7 @@
         <v>142</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C10" s="3"/>
     </row>
@@ -28532,7 +28509,7 @@
         <v>155</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C11" s="5"/>
     </row>
@@ -28541,7 +28518,7 @@
         <v>166</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C12" s="3"/>
     </row>
@@ -28550,7 +28527,7 @@
         <v>178</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C13" s="3"/>
     </row>
@@ -28559,7 +28536,7 @@
         <v>224</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C14" s="3"/>
     </row>
@@ -28568,7 +28545,7 @@
         <v>246</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C15" s="3"/>
     </row>
@@ -28577,7 +28554,7 @@
         <v>262</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C16" s="3"/>
     </row>
@@ -28586,7 +28563,7 @@
         <v>284</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C17" s="3"/>
     </row>
@@ -28595,7 +28572,7 @@
         <v>296</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C18" s="3"/>
     </row>
@@ -28604,7 +28581,7 @@
         <v>305</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C19" s="3"/>
     </row>
@@ -28613,7 +28590,7 @@
         <v>315</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C20" s="3"/>
     </row>
@@ -28622,7 +28599,7 @@
         <v>322</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C21" s="3"/>
     </row>
@@ -28631,7 +28608,7 @@
         <v>332</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C22" s="3"/>
     </row>
@@ -28640,7 +28617,7 @@
         <v>355</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C23" s="4"/>
     </row>
@@ -28649,7 +28626,7 @@
         <v>367</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C24" s="3"/>
     </row>
@@ -28658,7 +28635,7 @@
         <v>377</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C25" s="3"/>
     </row>
@@ -28667,7 +28644,7 @@
         <v>435</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C26" s="3"/>
     </row>
@@ -28676,7 +28653,7 @@
         <v>466</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C27" s="3"/>
     </row>
@@ -28685,7 +28662,7 @@
         <v>477</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C28" s="4"/>
     </row>
@@ -28694,7 +28671,7 @@
         <v>494</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C29" s="3"/>
     </row>
@@ -28703,7 +28680,7 @@
         <v>506</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C30" s="3"/>
     </row>
@@ -28712,7 +28689,7 @@
         <v>517</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C31" s="3"/>
     </row>
